--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="504"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="18600" windowHeight="14140" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -879,7 +879,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -923,8 +923,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -983,6 +1013,50 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1053,49 +1127,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="73">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1117,6 +1150,21 @@
     <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1138,6 +1186,21 @@
     <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1440,11 +1503,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1472,97 +1536,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="31" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="49" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="34"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="50"/>
     </row>
     <row r="3" spans="1:21" ht="16" thickTop="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -1571,21 +1635,21 @@
       <c r="C3" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="35" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="37">
         <v>1</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="39" t="s">
         <v>156</v>
       </c>
       <c r="K3" s="23" t="s">
@@ -1598,13 +1662,13 @@
         <v>54</v>
       </c>
       <c r="N3" s="24"/>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="41" t="s">
         <v>180</v>
       </c>
       <c r="P3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="66">
+      <c r="Q3" s="43">
         <v>10</v>
       </c>
       <c r="R3" s="27" t="s">
@@ -1630,23 +1694,23 @@
       <c r="C4" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="31" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="38">
         <v>2</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="40" t="s">
         <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -1659,13 +1723,13 @@
       <c r="N4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="42" t="s">
         <v>181</v>
       </c>
       <c r="P4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R4" s="11" t="s">
@@ -1691,23 +1755,23 @@
       <c r="C5" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="31" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="37">
         <v>3</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="40" t="s">
         <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -1720,13 +1784,13 @@
       <c r="N5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="42" t="s">
         <v>182</v>
       </c>
       <c r="P5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="67">
+      <c r="Q5" s="44">
         <v>10</v>
       </c>
       <c r="R5" s="11" t="s">
@@ -1752,23 +1816,23 @@
       <c r="C6" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="31" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="38">
         <v>4</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="40" t="s">
         <v>159</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1781,13 +1845,13 @@
       <c r="N6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="65" t="s">
+      <c r="O6" s="42" t="s">
         <v>183</v>
       </c>
       <c r="P6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="67" t="s">
+      <c r="Q6" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R6" s="11" t="s">
@@ -1813,21 +1877,21 @@
       <c r="C7" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="37">
         <v>5</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="40" t="s">
         <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1840,11 +1904,11 @@
       <c r="N7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="65"/>
+      <c r="O7" s="42"/>
       <c r="P7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="67">
+      <c r="Q7" s="44">
         <v>10</v>
       </c>
       <c r="R7" s="11" t="s">
@@ -1870,23 +1934,23 @@
       <c r="C8" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="31" t="s">
         <v>132</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="38">
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="40" t="s">
         <v>161</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1897,13 +1961,13 @@
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="42" t="s">
         <v>184</v>
       </c>
       <c r="P8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="67" t="s">
+      <c r="Q8" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R8" s="11" t="s">
@@ -1929,23 +1993,23 @@
       <c r="C9" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="31" t="s">
         <v>132</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="37">
         <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="40" t="s">
         <v>162</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1958,13 +2022,13 @@
       <c r="N9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="42" t="s">
         <v>185</v>
       </c>
       <c r="P9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="67" t="s">
+      <c r="Q9" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R9" s="11" t="s">
@@ -1990,23 +2054,23 @@
       <c r="C10" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="31" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="38">
         <v>8</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="40" t="s">
         <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -2019,11 +2083,11 @@
       <c r="N10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="65"/>
+      <c r="O10" s="42"/>
       <c r="P10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="67">
+      <c r="Q10" s="44">
         <v>10</v>
       </c>
       <c r="R10" s="11" t="s">
@@ -2049,23 +2113,23 @@
       <c r="C11" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="31" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="37">
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="40" t="s">
         <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -2078,13 +2142,13 @@
       <c r="N11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="65" t="s">
+      <c r="O11" s="42" t="s">
         <v>185</v>
       </c>
       <c r="P11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="67" t="s">
+      <c r="Q11" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R11" s="11" t="s">
@@ -2110,21 +2174,21 @@
       <c r="C12" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="54"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="38">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="40" t="s">
         <v>165</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -2137,13 +2201,13 @@
       <c r="N12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="42" t="s">
         <v>186</v>
       </c>
       <c r="P12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="67" t="s">
+      <c r="Q12" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R12" s="11" t="s">
@@ -2169,21 +2233,21 @@
       <c r="C13" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="54"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="37">
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="40" t="s">
         <v>166</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -2194,13 +2258,13 @@
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="65" t="s">
+      <c r="O13" s="42" t="s">
         <v>187</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="67" t="s">
+      <c r="Q13" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R13" s="11" t="s">
@@ -2226,21 +2290,21 @@
       <c r="C14" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="54"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="38">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="40" t="s">
         <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -2253,13 +2317,13 @@
       <c r="N14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="42" t="s">
         <v>188</v>
       </c>
       <c r="P14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="67" t="s">
+      <c r="Q14" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R14" s="11" t="s">
@@ -2285,23 +2349,23 @@
       <c r="C15" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="31" t="s">
         <v>131</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="37">
         <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="40" t="s">
         <v>168</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -2314,11 +2378,11 @@
       <c r="N15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="65"/>
+      <c r="O15" s="42"/>
       <c r="P15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="67">
+      <c r="Q15" s="44">
         <v>10</v>
       </c>
       <c r="R15" s="11" t="s">
@@ -2344,23 +2408,23 @@
       <c r="C16" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="31" t="s">
         <v>131</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="38">
         <v>14</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="40" t="s">
         <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -2373,11 +2437,11 @@
       <c r="N16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="65"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="67">
+      <c r="Q16" s="44">
         <v>10</v>
       </c>
       <c r="R16" s="11" t="s">
@@ -2403,32 +2467,32 @@
       <c r="C17" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="31" t="s">
         <v>131</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="45">
         <v>15</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="63"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="7"/>
       <c r="L17" s="6"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O17" s="65"/>
+      <c r="O17" s="42"/>
       <c r="P17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="67">
+      <c r="Q17" s="44">
         <v>10</v>
       </c>
       <c r="R17" s="11" t="s">
@@ -2454,21 +2518,21 @@
       <c r="C18" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="54"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="37">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="40" t="s">
         <v>170</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -2479,11 +2543,11 @@
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="65"/>
+      <c r="O18" s="42"/>
       <c r="P18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="67" t="s">
+      <c r="Q18" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R18" s="11" t="s">
@@ -2509,21 +2573,21 @@
       <c r="C19" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="54"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="38">
         <v>17</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="40" t="s">
         <v>171</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -2534,11 +2598,11 @@
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="65"/>
+      <c r="O19" s="42"/>
       <c r="P19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="67" t="s">
+      <c r="Q19" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R19" s="11" t="s">
@@ -2564,21 +2628,21 @@
       <c r="C20" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="45">
         <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="40" t="s">
         <v>172</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -2591,13 +2655,13 @@
       <c r="N20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="65" t="s">
+      <c r="O20" s="42" t="s">
         <v>185</v>
       </c>
       <c r="P20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="67" t="s">
+      <c r="Q20" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R20" s="11" t="s">
@@ -2623,21 +2687,21 @@
       <c r="C21" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="37">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="40" t="s">
         <v>173</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -2650,11 +2714,11 @@
         <v>118</v>
       </c>
       <c r="N21" s="8"/>
-      <c r="O21" s="65"/>
+      <c r="O21" s="42"/>
       <c r="P21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="67" t="s">
+      <c r="Q21" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R21" s="11" t="s">
@@ -2680,23 +2744,23 @@
       <c r="C22" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="31" t="s">
         <v>131</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="38">
         <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="40" t="s">
         <v>174</v>
       </c>
       <c r="K22" s="7" t="s">
@@ -2709,11 +2773,11 @@
       <c r="N22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="65"/>
+      <c r="O22" s="42"/>
       <c r="P22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="67">
+      <c r="Q22" s="44">
         <v>10</v>
       </c>
       <c r="R22" s="11" t="s">
@@ -2739,32 +2803,32 @@
       <c r="C23" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="31" t="s">
         <v>131</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="37">
         <v>21</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="63"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="7"/>
       <c r="L23" s="6"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="65"/>
+      <c r="O23" s="42"/>
       <c r="P23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="67">
+      <c r="Q23" s="44">
         <v>10</v>
       </c>
       <c r="R23" s="11" t="s">
@@ -2790,21 +2854,21 @@
       <c r="C24" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="54"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="68">
-        <v>21</v>
+      <c r="H24" s="38">
+        <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="40" t="s">
         <v>175</v>
       </c>
       <c r="K24" s="7" t="s">
@@ -2817,13 +2881,13 @@
       <c r="N24" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="65" t="s">
+      <c r="O24" s="42" t="s">
         <v>185</v>
       </c>
       <c r="P24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="67" t="s">
+      <c r="Q24" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R24" s="11" t="s">
@@ -2849,21 +2913,21 @@
       <c r="C25" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="54"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="60">
-        <v>22</v>
+      <c r="H25" s="37">
+        <v>23</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="63" t="s">
+      <c r="J25" s="40" t="s">
         <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -2876,13 +2940,13 @@
       <c r="N25" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="O25" s="65" t="s">
+      <c r="O25" s="42" t="s">
         <v>185</v>
       </c>
       <c r="P25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="67" t="s">
+      <c r="Q25" s="44" t="s">
         <v>193</v>
       </c>
       <c r="R25" s="11" t="s">
@@ -2908,21 +2972,21 @@
       <c r="C26" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="54"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="61">
-        <v>23</v>
+      <c r="H26" s="38">
+        <v>24</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="63" t="s">
+      <c r="J26" s="40" t="s">
         <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
@@ -2939,7 +3003,7 @@
       <c r="P26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="67">
+      <c r="Q26" s="44">
         <v>10</v>
       </c>
       <c r="R26" s="11" t="s">
@@ -2965,21 +3029,21 @@
       <c r="C27" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="54"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="H27" s="68">
-        <v>24</v>
+      <c r="H27" s="37">
+        <v>25</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="40" t="s">
         <v>178</v>
       </c>
       <c r="K27" s="7" t="s">
@@ -2994,7 +3058,7 @@
       <c r="P27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="67"/>
+      <c r="Q27" s="44"/>
       <c r="R27" s="11"/>
       <c r="S27" s="10"/>
       <c r="T27" s="12"/>
@@ -3010,21 +3074,21 @@
       <c r="C28" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="54"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="H28" s="60">
-        <v>25</v>
+      <c r="H28" s="38">
+        <v>26</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="63" t="s">
+      <c r="J28" s="40" t="s">
         <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
@@ -3041,7 +3105,7 @@
       <c r="P28" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="67">
+      <c r="Q28" s="44">
         <v>10</v>
       </c>
       <c r="R28" s="11" t="s">
@@ -3067,21 +3131,21 @@
       <c r="C29" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="54"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="H29" s="61">
-        <v>26</v>
+      <c r="H29" s="37">
+        <v>27</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="63" t="s">
+      <c r="J29" s="40" t="s">
         <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
@@ -3098,7 +3162,7 @@
       <c r="P29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="67">
+      <c r="Q29" s="44">
         <v>10</v>
       </c>
       <c r="R29" s="11" t="s">
@@ -3124,21 +3188,21 @@
       <c r="C30" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="54"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="H30" s="68">
-        <v>27</v>
+      <c r="H30" s="38">
+        <v>28</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="40" t="s">
         <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
@@ -3155,7 +3219,7 @@
       <c r="P30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="67">
+      <c r="Q30" s="44">
         <v>10</v>
       </c>
       <c r="R30" s="11" t="s">
@@ -3181,21 +3245,21 @@
       <c r="C31" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="36" t="s">
         <v>129</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="H31" s="61">
-        <v>28</v>
+      <c r="H31" s="37">
+        <v>29</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="63" t="s">
+      <c r="J31" s="40" t="s">
         <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -4604,6 +4668,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="18600" windowHeight="14140" tabRatio="504"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="18600" windowHeight="14145" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -461,9 +466,6 @@
     <t>Refuerza tu aprendizaje: Análisis gráfico de movimiento rectilíneo uniformemente acelerado</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Solución de Problemas que combinan MRU y MRUA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comprende la caída libre de los cuerpos </t>
   </si>
   <si>
@@ -483,9 +485,6 @@
   </si>
   <si>
     <t>Competencias: análisis de un movimiento de caída libre</t>
-  </si>
-  <si>
-    <t>Competencias: calculando la gravedad de la tierra</t>
   </si>
   <si>
     <t>Mapa Conceptual</t>
@@ -692,6 +691,12 @@
   </si>
   <si>
     <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Competencias: calculando la gravedad de la Tierra</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Solución de problemas que combinan MRU y MRUA</t>
   </si>
 </sst>
 </file>
@@ -1058,34 +1063,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,6 +1112,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1503,129 +1508,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="106.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="106.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="64" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="62"/>
+    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="50"/>
-    </row>
-    <row r="3" spans="1:21" ht="16" thickTop="1">
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="65"/>
+    </row>
+    <row r="3" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>17</v>
       </c>
@@ -1650,7 +1655,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>20</v>
@@ -1663,7 +1668,7 @@
       </c>
       <c r="N3" s="24"/>
       <c r="O3" s="41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P3" s="25" t="s">
         <v>19</v>
@@ -1672,19 +1677,19 @@
         <v>10</v>
       </c>
       <c r="R3" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="T3" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="U3" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="T3" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15">
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1711,7 +1716,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>19</v>
@@ -1724,28 +1729,28 @@
         <v>23</v>
       </c>
       <c r="O4" s="42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P4" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q4" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>134</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1772,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1785,7 +1790,7 @@
         <v>29</v>
       </c>
       <c r="O5" s="42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="25" t="s">
         <v>19</v>
@@ -1794,19 +1799,19 @@
         <v>10</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T5" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="U5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T5" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="154">
+    </row>
+    <row r="6" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1833,7 +1838,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -1846,28 +1851,28 @@
         <v>52</v>
       </c>
       <c r="O6" s="42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P6" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>136</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1892,7 +1897,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1912,19 +1917,19 @@
         <v>10</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S7" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="56">
+    </row>
+    <row r="8" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1951,7 +1956,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -1962,28 +1967,28 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>138</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -2010,7 +2015,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -2023,28 +2028,28 @@
         <v>24</v>
       </c>
       <c r="O9" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P9" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S9" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>139</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -2091,19 +2096,19 @@
         <v>10</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15">
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2143,28 +2148,28 @@
         <v>52</v>
       </c>
       <c r="O11" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P11" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S11" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>141</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="112">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2189,7 +2194,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2202,28 +2207,28 @@
         <v>33</v>
       </c>
       <c r="O12" s="42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S12" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="T12" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2248,7 +2253,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -2259,28 +2264,28 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>126</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2305,7 +2310,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2318,28 +2323,28 @@
         <v>24</v>
       </c>
       <c r="O14" s="42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P14" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S14" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>143</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2366,7 +2371,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2386,19 +2391,19 @@
         <v>10</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S15" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="U15" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T15" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15">
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2416,7 +2421,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="34" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="H16" s="38">
         <v>14</v>
@@ -2425,7 +2430,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2445,19 +2450,19 @@
         <v>10</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S16" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T16" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15">
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2475,7 +2480,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H17" s="45">
         <v>15</v>
@@ -2496,19 +2501,19 @@
         <v>10</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S17" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="U17" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T17" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15">
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2524,7 +2529,7 @@
       <c r="E18" s="31"/>
       <c r="F18" s="9"/>
       <c r="G18" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H18" s="37">
         <v>16</v>
@@ -2533,7 +2538,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
@@ -2548,22 +2553,22 @@
         <v>19</v>
       </c>
       <c r="Q18" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="T18" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2579,7 +2584,7 @@
       <c r="E19" s="31"/>
       <c r="F19" s="9"/>
       <c r="G19" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19" s="38">
         <v>17</v>
@@ -2588,7 +2593,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
@@ -2603,22 +2608,22 @@
         <v>19</v>
       </c>
       <c r="Q19" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="R19" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="T19" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2634,7 +2639,7 @@
       <c r="E20" s="31"/>
       <c r="F20" s="9"/>
       <c r="G20" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H20" s="45">
         <v>18</v>
@@ -2643,7 +2648,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -2656,28 +2661,28 @@
         <v>24</v>
       </c>
       <c r="O20" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P20" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="R20" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="T20" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2693,7 +2698,7 @@
       <c r="E21" s="31"/>
       <c r="F21" s="9"/>
       <c r="G21" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" s="37">
         <v>19</v>
@@ -2702,7 +2707,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
@@ -2719,22 +2724,22 @@
         <v>19</v>
       </c>
       <c r="Q21" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S21" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="R21" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="T21" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2752,7 +2757,7 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" s="38">
         <v>20</v>
@@ -2761,7 +2766,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2781,19 +2786,19 @@
         <v>10</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="U22" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T22" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15">
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2811,7 +2816,7 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H23" s="37">
         <v>21</v>
@@ -2832,19 +2837,19 @@
         <v>10</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S23" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="U23" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T23" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15">
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2860,7 +2865,7 @@
       <c r="E24" s="31"/>
       <c r="F24" s="9"/>
       <c r="G24" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H24" s="38">
         <v>22</v>
@@ -2869,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
@@ -2882,28 +2887,28 @@
         <v>121</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P24" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="R24" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="T24" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2919,7 +2924,7 @@
       <c r="E25" s="31"/>
       <c r="F25" s="9"/>
       <c r="G25" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H25" s="37">
         <v>23</v>
@@ -2928,7 +2933,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
@@ -2941,28 +2946,28 @@
         <v>121</v>
       </c>
       <c r="O25" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P25" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S25" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="R25" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="T25" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -2978,7 +2983,7 @@
       <c r="E26" s="31"/>
       <c r="F26" s="9"/>
       <c r="G26" s="34" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="H26" s="38">
         <v>24</v>
@@ -2987,7 +2992,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3007,19 +3012,19 @@
         <v>10</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S26" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="U26" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="T26" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15">
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -3035,7 +3040,7 @@
       <c r="E27" s="31"/>
       <c r="F27" s="9"/>
       <c r="G27" s="34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H27" s="37">
         <v>25</v>
@@ -3044,7 +3049,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -3064,7 +3069,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="15">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3080,7 +3085,7 @@
       <c r="E28" s="31"/>
       <c r="F28" s="9"/>
       <c r="G28" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H28" s="38">
         <v>26</v>
@@ -3089,7 +3094,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3109,19 +3114,19 @@
         <v>10</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S28" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T28" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15">
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3137,7 +3142,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="9"/>
       <c r="G29" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H29" s="37">
         <v>27</v>
@@ -3146,7 +3151,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3166,19 +3171,19 @@
         <v>10</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S29" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="U29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T29" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15">
+    </row>
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -3194,7 +3199,7 @@
       <c r="E30" s="31"/>
       <c r="F30" s="9"/>
       <c r="G30" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H30" s="38">
         <v>28</v>
@@ -3203,7 +3208,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
@@ -3223,19 +3228,19 @@
         <v>10</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S30" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="U30" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T30" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="U30" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15">
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -3251,7 +3256,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H31" s="37">
         <v>29</v>
@@ -3260,7 +3265,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
@@ -3280,19 +3285,19 @@
         <v>10</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S31" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="U31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T31" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15">
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -3315,7 +3320,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3338,7 +3343,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3361,7 +3366,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3384,7 +3389,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3407,7 +3412,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3430,7 +3435,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3453,7 +3458,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3476,7 +3481,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3499,7 +3504,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3522,7 +3527,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3545,7 +3550,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3568,7 +3573,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3591,7 +3596,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3614,7 +3619,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3637,7 +3642,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3660,7 +3665,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3683,7 +3688,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3706,7 +3711,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3729,7 +3734,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3752,7 +3757,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3775,7 +3780,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3798,7 +3803,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3821,7 +3826,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3844,7 +3849,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3867,7 +3872,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3890,7 +3895,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3913,7 +3918,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3936,7 +3941,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3959,7 +3964,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3982,7 +3987,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4005,7 +4010,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4028,7 +4033,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4051,7 +4056,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4074,7 +4079,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4097,7 +4102,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4120,7 +4125,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4143,7 +4148,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4166,7 +4171,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15">
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4189,7 +4194,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" ht="15">
+    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -4212,7 +4217,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="1:21" ht="15">
+    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -4235,372 +4240,378 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="74" spans="1:21" hidden="1"/>
-    <row r="75" spans="1:21" hidden="1"/>
-    <row r="76" spans="1:21" hidden="1"/>
-    <row r="77" spans="1:21" hidden="1"/>
-    <row r="78" spans="1:21" hidden="1"/>
-    <row r="79" spans="1:21" hidden="1"/>
-    <row r="80" spans="1:21" hidden="1"/>
-    <row r="81" spans="1:1" hidden="1"/>
-    <row r="82" spans="1:1" hidden="1"/>
-    <row r="83" spans="1:1" hidden="1"/>
-    <row r="84" spans="1:1" hidden="1"/>
-    <row r="85" spans="1:1" hidden="1"/>
-    <row r="86" spans="1:1" hidden="1"/>
-    <row r="87" spans="1:1" hidden="1">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1">
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1"/>
-    <row r="125" spans="1:1" hidden="1"/>
-    <row r="126" spans="1:1" hidden="1"/>
-    <row r="127" spans="1:1" hidden="1"/>
-    <row r="128" spans="1:1" hidden="1"/>
-    <row r="129" hidden="1"/>
-    <row r="130" hidden="1"/>
-    <row r="131" hidden="1"/>
-    <row r="132" hidden="1"/>
-    <row r="133" hidden="1"/>
-    <row r="134" hidden="1"/>
-    <row r="135" hidden="1"/>
-    <row r="136" hidden="1"/>
-    <row r="137" hidden="1"/>
-    <row r="138" hidden="1"/>
-    <row r="139" hidden="1"/>
-    <row r="140" hidden="1"/>
-    <row r="141" hidden="1"/>
-    <row r="142" hidden="1"/>
-    <row r="143" hidden="1"/>
-    <row r="144" hidden="1"/>
-    <row r="145" hidden="1"/>
-    <row r="146" hidden="1"/>
-    <row r="147" hidden="1"/>
-    <row r="148" hidden="1"/>
-    <row r="149" hidden="1"/>
-    <row r="150" hidden="1"/>
-    <row r="151" hidden="1"/>
-    <row r="152" hidden="1"/>
-    <row r="153" hidden="1"/>
-    <row r="154" hidden="1"/>
-    <row r="155" hidden="1"/>
-    <row r="156" hidden="1"/>
-    <row r="157" hidden="1"/>
-    <row r="158" hidden="1"/>
-    <row r="159" hidden="1"/>
-    <row r="160" hidden="1"/>
-    <row r="161" hidden="1"/>
-    <row r="162" hidden="1"/>
-    <row r="163" hidden="1"/>
-    <row r="164" hidden="1"/>
-    <row r="165" hidden="1"/>
-    <row r="166" hidden="1"/>
-    <row r="167" hidden="1"/>
-    <row r="168" hidden="1"/>
-    <row r="169" hidden="1"/>
-    <row r="170" hidden="1"/>
-    <row r="171" hidden="1"/>
-    <row r="172" hidden="1"/>
-    <row r="173" hidden="1"/>
-    <row r="174" hidden="1"/>
-    <row r="175" hidden="1"/>
-    <row r="176" hidden="1"/>
-    <row r="177" hidden="1"/>
-    <row r="178" hidden="1"/>
-    <row r="179" hidden="1"/>
-    <row r="180" hidden="1"/>
-    <row r="181" hidden="1"/>
-    <row r="182" hidden="1"/>
-    <row r="183" hidden="1"/>
-    <row r="184" hidden="1"/>
-    <row r="185" hidden="1"/>
-    <row r="186" hidden="1"/>
-    <row r="187" hidden="1"/>
-    <row r="188" hidden="1"/>
-    <row r="189" hidden="1"/>
-    <row r="190" hidden="1"/>
-    <row r="191" hidden="1"/>
-    <row r="192" hidden="1"/>
-    <row r="193" hidden="1"/>
-    <row r="194" hidden="1"/>
-    <row r="195" hidden="1"/>
-    <row r="196" hidden="1"/>
-    <row r="197" hidden="1"/>
-    <row r="198" hidden="1"/>
-    <row r="199" hidden="1"/>
-    <row r="200" hidden="1"/>
-    <row r="201" hidden="1"/>
-    <row r="202" hidden="1"/>
-    <row r="203" hidden="1"/>
-    <row r="204" hidden="1"/>
-    <row r="205" hidden="1"/>
-    <row r="206" hidden="1"/>
-    <row r="207" hidden="1"/>
-    <row r="208" hidden="1"/>
-    <row r="209" hidden="1"/>
-    <row r="210" hidden="1"/>
-    <row r="211" hidden="1"/>
-    <row r="212" hidden="1"/>
-    <row r="213" hidden="1"/>
-    <row r="214" hidden="1"/>
-    <row r="215" hidden="1"/>
-    <row r="216" hidden="1"/>
-    <row r="217" hidden="1"/>
-    <row r="218" hidden="1"/>
-    <row r="219" hidden="1"/>
-    <row r="220" hidden="1"/>
-    <row r="221" hidden="1"/>
-    <row r="222" hidden="1"/>
-    <row r="223" hidden="1"/>
-    <row r="224" hidden="1"/>
-    <row r="225" hidden="1"/>
-    <row r="226" hidden="1"/>
-    <row r="227" hidden="1"/>
-    <row r="228" hidden="1"/>
-    <row r="229" hidden="1"/>
-    <row r="230" hidden="1"/>
-    <row r="231" hidden="1"/>
-    <row r="232" hidden="1"/>
-    <row r="233" hidden="1"/>
-    <row r="234" hidden="1"/>
-    <row r="235" hidden="1"/>
-    <row r="236" hidden="1"/>
-    <row r="237" hidden="1"/>
-    <row r="238" hidden="1"/>
-    <row r="239" hidden="1"/>
-    <row r="240" hidden="1"/>
-    <row r="241" hidden="1"/>
-    <row r="242" hidden="1"/>
-    <row r="243" hidden="1"/>
-    <row r="244" hidden="1"/>
-    <row r="245" hidden="1"/>
-    <row r="246" hidden="1"/>
-    <row r="247" hidden="1"/>
-    <row r="248" hidden="1"/>
-    <row r="249" hidden="1"/>
-    <row r="250" hidden="1"/>
-    <row r="251" hidden="1"/>
-    <row r="252" hidden="1"/>
-    <row r="253" hidden="1"/>
-    <row r="254" hidden="1"/>
-    <row r="255" hidden="1"/>
-    <row r="256" hidden="1"/>
-    <row r="257" hidden="1"/>
-    <row r="258" hidden="1"/>
-    <row r="259" hidden="1"/>
-    <row r="260" hidden="1"/>
-    <row r="261" hidden="1"/>
-    <row r="262" hidden="1"/>
-    <row r="263" hidden="1"/>
-    <row r="264" hidden="1"/>
-    <row r="265" hidden="1"/>
-    <row r="266" hidden="1"/>
-    <row r="267" hidden="1"/>
-    <row r="268" hidden="1"/>
-    <row r="269" hidden="1"/>
-    <row r="270" hidden="1"/>
-    <row r="271" hidden="1"/>
-    <row r="272" hidden="1"/>
-    <row r="273" hidden="1"/>
-    <row r="274" hidden="1"/>
-    <row r="275" hidden="1"/>
-    <row r="276" hidden="1"/>
-    <row r="277" hidden="1"/>
-    <row r="278" hidden="1"/>
-    <row r="279" hidden="1"/>
-    <row r="280" hidden="1"/>
-    <row r="281" hidden="1"/>
-    <row r="282" hidden="1"/>
-    <row r="283" hidden="1"/>
-    <row r="284" hidden="1"/>
-    <row r="285" hidden="1"/>
-    <row r="286" hidden="1"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4615,12 +4626,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4668,34 +4673,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="2"/>
-    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.33203125" style="2"/>
+    <col min="13" max="13" width="11.28515625" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4712,7 +4717,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4736,7 +4741,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4755,7 +4760,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4774,7 +4779,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4790,7 +4795,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4807,7 +4812,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4824,7 +4829,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4839,7 +4844,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4854,7 +4859,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4869,7 +4874,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4884,7 +4889,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4899,7 +4904,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4914,7 +4919,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4929,7 +4934,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4944,7 +4949,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4959,7 +4964,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -4973,7 +4978,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -4987,7 +4992,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -5001,7 +5006,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -5015,7 +5020,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5030,7 +5035,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5045,7 +5050,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5060,7 +5065,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5075,7 +5080,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5090,7 +5095,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5105,7 +5110,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5120,7 +5125,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5135,7 +5140,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5150,7 +5155,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5165,7 +5170,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5180,7 +5185,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5195,7 +5200,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5210,7 +5215,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5225,7 +5230,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5240,7 +5245,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5255,7 +5260,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5270,7 +5275,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5285,7 +5290,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5300,7 +5305,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5315,7 +5320,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5330,7 +5335,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5345,7 +5350,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5360,7 +5365,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5375,7 +5380,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5390,7 +5395,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5405,7 +5410,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5420,7 +5425,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5435,7 +5440,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5447,7 +5452,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5459,7 +5464,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5472,7 +5477,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5485,7 +5490,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5498,7 +5503,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5511,7 +5516,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5524,7 +5529,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5537,7 +5542,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5550,7 +5555,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5563,7 +5568,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5576,7 +5581,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5589,7 +5594,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5602,7 +5607,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5615,7 +5620,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5628,7 +5633,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5641,7 +5646,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5654,7 +5659,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5667,7 +5672,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5680,7 +5685,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5693,7 +5698,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5706,7 +5711,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5719,7 +5724,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5733,7 +5738,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5747,7 +5752,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5761,7 +5766,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5775,7 +5780,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5789,7 +5794,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5803,7 +5808,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5817,7 +5822,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5831,7 +5836,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5845,7 +5850,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5859,7 +5864,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5873,7 +5878,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5887,7 +5892,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5901,7 +5906,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5915,7 +5920,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5929,7 +5934,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5943,7 +5948,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5957,7 +5962,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5971,7 +5976,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5985,7 +5990,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5999,7 +6004,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6013,7 +6018,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6027,7 +6032,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6041,7 +6046,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6055,7 +6060,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6069,7 +6074,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6083,7 +6088,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6097,7 +6102,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6111,7 +6116,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6125,7 +6130,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6139,7 +6144,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6153,7 +6158,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6167,7 +6172,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6181,7 +6186,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6195,7 +6200,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6209,7 +6214,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6223,7 +6228,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6237,7 +6242,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6251,7 +6256,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6265,7 +6270,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6279,7 +6284,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6293,7 +6298,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6307,7 +6312,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6321,7 +6326,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6335,7 +6340,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6349,7 +6354,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6363,7 +6368,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6377,7 +6382,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6391,7 +6396,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6405,7 +6410,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6419,7 +6424,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6433,7 +6438,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6447,7 +6452,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6461,7 +6466,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6475,7 +6480,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6489,7 +6494,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6503,7 +6508,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6517,7 +6522,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6531,7 +6536,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6545,7 +6550,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6559,7 +6564,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6573,7 +6578,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6587,7 +6592,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="219">
   <si>
     <t>Asignatura</t>
   </si>
@@ -692,6 +692,12 @@
   </si>
   <si>
     <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Actividad para identificar las características y diferencias entre un MRU y MRUA</t>
+  </si>
+  <si>
+    <t>Actividad para identificar propiedades de los vectores en la caída libre y el lanzamiento vertical</t>
   </si>
 </sst>
 </file>
@@ -1506,9 +1512,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2481,7 +2487,9 @@
         <v>15</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="40"/>
+      <c r="J17" s="40" t="s">
+        <v>217</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="6"/>
       <c r="M17" s="8"/>
@@ -2817,7 +2825,9 @@
         <v>21</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="40"/>
+      <c r="J23" s="40" t="s">
+        <v>218</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="6"/>
       <c r="M23" s="8"/>

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="219">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1064,16 +1064,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,24 +1131,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1512,9 +1512,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1542,94 +1542,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="49" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="49" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="65"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="50"/>
     </row>
     <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="46" t="s">
@@ -2486,12 +2486,18 @@
       <c r="H17" s="45">
         <v>15</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J17" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8" t="s">
         <v>52</v>
@@ -2824,12 +2830,18 @@
       <c r="H23" s="37">
         <v>21</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J23" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="6"/>
+      <c r="K23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
         <v>52</v>
@@ -4611,12 +4623,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4631,6 +4637,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14595" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$31</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -1064,74 +1069,74 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -1509,129 +1514,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="106.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="128" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="49" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
+    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="63"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="65"/>
-    </row>
-    <row r="3" spans="1:21" ht="16" thickTop="1">
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="67"/>
+    </row>
+    <row r="3" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>17</v>
       </c>
@@ -1690,7 +1695,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1756,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1812,7 +1817,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="154">
+    <row r="6" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1873,7 +1878,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1930,7 +1935,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="56">
+    <row r="8" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1989,7 +1994,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -2050,7 +2055,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -2109,7 +2114,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15">
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2170,7 +2175,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="112">
+    <row r="12" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2229,7 +2234,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2286,7 +2291,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2345,7 +2350,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2404,7 +2409,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2516,7 +2521,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2571,7 +2576,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2685,7 +2690,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2801,7 +2806,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2854,7 +2859,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2913,7 +2918,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2972,7 +2977,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -3029,7 +3034,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -3074,7 +3079,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="15">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3131,7 +3136,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3188,7 +3193,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -3245,7 +3250,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -3302,7 +3307,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -3325,7 +3330,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3348,7 +3353,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3371,7 +3376,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3394,7 +3399,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3417,7 +3422,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3440,7 +3445,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3463,7 +3468,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3486,7 +3491,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3509,7 +3514,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3532,7 +3537,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3555,7 +3560,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3578,7 +3583,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3601,7 +3606,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3624,7 +3629,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3647,7 +3652,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3670,7 +3675,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3693,7 +3698,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3716,7 +3721,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3739,7 +3744,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3762,7 +3767,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3785,7 +3790,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3808,7 +3813,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3831,7 +3836,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3854,7 +3859,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3877,7 +3882,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3900,7 +3905,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3923,7 +3928,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3946,7 +3951,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3969,7 +3974,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3992,7 +3997,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4015,7 +4020,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4038,7 +4043,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4061,7 +4066,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4084,7 +4089,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4107,7 +4112,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4130,7 +4135,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4153,7 +4158,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4176,7 +4181,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15">
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4199,7 +4204,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" ht="15">
+    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -4222,7 +4227,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="1:21" ht="15">
+    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -4245,393 +4250,371 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="74" spans="1:21" hidden="1"/>
-    <row r="75" spans="1:21" hidden="1"/>
-    <row r="76" spans="1:21" hidden="1"/>
-    <row r="77" spans="1:21" hidden="1"/>
-    <row r="78" spans="1:21" hidden="1"/>
-    <row r="79" spans="1:21" hidden="1"/>
-    <row r="80" spans="1:21" hidden="1"/>
-    <row r="81" spans="1:1" hidden="1"/>
-    <row r="82" spans="1:1" hidden="1"/>
-    <row r="83" spans="1:1" hidden="1"/>
-    <row r="84" spans="1:1" hidden="1"/>
-    <row r="85" spans="1:1" hidden="1"/>
-    <row r="86" spans="1:1" hidden="1"/>
-    <row r="87" spans="1:1" hidden="1">
+    <row r="74" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1">
+    <row r="88" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1">
+    <row r="89" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1">
+    <row r="90" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1">
+    <row r="91" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1">
+    <row r="92" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1">
+    <row r="93" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1">
+    <row r="94" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1">
+    <row r="95" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1">
+    <row r="96" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1">
+    <row r="97" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1">
+    <row r="98" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1">
+    <row r="99" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1">
+    <row r="100" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1">
+    <row r="101" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1">
+    <row r="102" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1">
+    <row r="103" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1">
+    <row r="104" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1">
+    <row r="105" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1">
+    <row r="106" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1">
+    <row r="107" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1">
+    <row r="108" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1">
+    <row r="109" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1">
+    <row r="110" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1">
+    <row r="111" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1">
+    <row r="112" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1">
+    <row r="113" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1">
+    <row r="114" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1">
+    <row r="115" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1">
+    <row r="116" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1">
+    <row r="117" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1">
+    <row r="118" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1">
+    <row r="119" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1">
+    <row r="120" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1">
+    <row r="121" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1">
+    <row r="122" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1">
+    <row r="123" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1"/>
-    <row r="125" spans="1:1" hidden="1"/>
-    <row r="126" spans="1:1" hidden="1"/>
-    <row r="127" spans="1:1" hidden="1"/>
-    <row r="128" spans="1:1" hidden="1"/>
-    <row r="129" hidden="1"/>
-    <row r="130" hidden="1"/>
-    <row r="131" hidden="1"/>
-    <row r="132" hidden="1"/>
-    <row r="133" hidden="1"/>
-    <row r="134" hidden="1"/>
-    <row r="135" hidden="1"/>
-    <row r="136" hidden="1"/>
-    <row r="137" hidden="1"/>
-    <row r="138" hidden="1"/>
-    <row r="139" hidden="1"/>
-    <row r="140" hidden="1"/>
-    <row r="141" hidden="1"/>
-    <row r="142" hidden="1"/>
-    <row r="143" hidden="1"/>
-    <row r="144" hidden="1"/>
-    <row r="145" hidden="1"/>
-    <row r="146" hidden="1"/>
-    <row r="147" hidden="1"/>
-    <row r="148" hidden="1"/>
-    <row r="149" hidden="1"/>
-    <row r="150" hidden="1"/>
-    <row r="151" hidden="1"/>
-    <row r="152" hidden="1"/>
-    <row r="153" hidden="1"/>
-    <row r="154" hidden="1"/>
-    <row r="155" hidden="1"/>
-    <row r="156" hidden="1"/>
-    <row r="157" hidden="1"/>
-    <row r="158" hidden="1"/>
-    <row r="159" hidden="1"/>
-    <row r="160" hidden="1"/>
-    <row r="161" hidden="1"/>
-    <row r="162" hidden="1"/>
-    <row r="163" hidden="1"/>
-    <row r="164" hidden="1"/>
-    <row r="165" hidden="1"/>
-    <row r="166" hidden="1"/>
-    <row r="167" hidden="1"/>
-    <row r="168" hidden="1"/>
-    <row r="169" hidden="1"/>
-    <row r="170" hidden="1"/>
-    <row r="171" hidden="1"/>
-    <row r="172" hidden="1"/>
-    <row r="173" hidden="1"/>
-    <row r="174" hidden="1"/>
-    <row r="175" hidden="1"/>
-    <row r="176" hidden="1"/>
-    <row r="177" hidden="1"/>
-    <row r="178" hidden="1"/>
-    <row r="179" hidden="1"/>
-    <row r="180" hidden="1"/>
-    <row r="181" hidden="1"/>
-    <row r="182" hidden="1"/>
-    <row r="183" hidden="1"/>
-    <row r="184" hidden="1"/>
-    <row r="185" hidden="1"/>
-    <row r="186" hidden="1"/>
-    <row r="187" hidden="1"/>
-    <row r="188" hidden="1"/>
-    <row r="189" hidden="1"/>
-    <row r="190" hidden="1"/>
-    <row r="191" hidden="1"/>
-    <row r="192" hidden="1"/>
-    <row r="193" hidden="1"/>
-    <row r="194" hidden="1"/>
-    <row r="195" hidden="1"/>
-    <row r="196" hidden="1"/>
-    <row r="197" hidden="1"/>
-    <row r="198" hidden="1"/>
-    <row r="199" hidden="1"/>
-    <row r="200" hidden="1"/>
-    <row r="201" hidden="1"/>
-    <row r="202" hidden="1"/>
-    <row r="203" hidden="1"/>
-    <row r="204" hidden="1"/>
-    <row r="205" hidden="1"/>
-    <row r="206" hidden="1"/>
-    <row r="207" hidden="1"/>
-    <row r="208" hidden="1"/>
-    <row r="209" hidden="1"/>
-    <row r="210" hidden="1"/>
-    <row r="211" hidden="1"/>
-    <row r="212" hidden="1"/>
-    <row r="213" hidden="1"/>
-    <row r="214" hidden="1"/>
-    <row r="215" hidden="1"/>
-    <row r="216" hidden="1"/>
-    <row r="217" hidden="1"/>
-    <row r="218" hidden="1"/>
-    <row r="219" hidden="1"/>
-    <row r="220" hidden="1"/>
-    <row r="221" hidden="1"/>
-    <row r="222" hidden="1"/>
-    <row r="223" hidden="1"/>
-    <row r="224" hidden="1"/>
-    <row r="225" hidden="1"/>
-    <row r="226" hidden="1"/>
-    <row r="227" hidden="1"/>
-    <row r="228" hidden="1"/>
-    <row r="229" hidden="1"/>
-    <row r="230" hidden="1"/>
-    <row r="231" hidden="1"/>
-    <row r="232" hidden="1"/>
-    <row r="233" hidden="1"/>
-    <row r="234" hidden="1"/>
-    <row r="235" hidden="1"/>
-    <row r="236" hidden="1"/>
-    <row r="237" hidden="1"/>
-    <row r="238" hidden="1"/>
-    <row r="239" hidden="1"/>
-    <row r="240" hidden="1"/>
-    <row r="241" hidden="1"/>
-    <row r="242" hidden="1"/>
-    <row r="243" hidden="1"/>
-    <row r="244" hidden="1"/>
-    <row r="245" hidden="1"/>
-    <row r="246" hidden="1"/>
-    <row r="247" hidden="1"/>
-    <row r="248" hidden="1"/>
-    <row r="249" hidden="1"/>
-    <row r="250" hidden="1"/>
-    <row r="251" hidden="1"/>
-    <row r="252" hidden="1"/>
-    <row r="253" hidden="1"/>
-    <row r="254" hidden="1"/>
-    <row r="255" hidden="1"/>
-    <row r="256" hidden="1"/>
-    <row r="257" hidden="1"/>
-    <row r="258" hidden="1"/>
-    <row r="259" hidden="1"/>
-    <row r="260" hidden="1"/>
-    <row r="261" hidden="1"/>
-    <row r="262" hidden="1"/>
-    <row r="263" hidden="1"/>
-    <row r="264" hidden="1"/>
-    <row r="265" hidden="1"/>
-    <row r="266" hidden="1"/>
-    <row r="267" hidden="1"/>
-    <row r="268" hidden="1"/>
-    <row r="269" hidden="1"/>
-    <row r="270" hidden="1"/>
-    <row r="271" hidden="1"/>
-    <row r="272" hidden="1"/>
-    <row r="273" hidden="1"/>
-    <row r="274" hidden="1"/>
-    <row r="275" hidden="1"/>
-    <row r="276" hidden="1"/>
-    <row r="277" hidden="1"/>
-    <row r="278" hidden="1"/>
-    <row r="279" hidden="1"/>
-    <row r="280" hidden="1"/>
-    <row r="281" hidden="1"/>
-    <row r="282" hidden="1"/>
-    <row r="283" hidden="1"/>
-    <row r="284" hidden="1"/>
-    <row r="285" hidden="1"/>
-    <row r="286" hidden="1"/>
+    <row r="124" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
+  <autoFilter ref="A1:U31">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
-  <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -4678,34 +4661,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="2"/>
-    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.33203125" style="2"/>
+    <col min="13" max="13" width="11.28515625" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4722,7 +4705,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4746,7 +4729,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4765,7 +4748,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4784,7 +4767,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4800,7 +4783,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4817,7 +4800,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4834,7 +4817,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4849,7 +4832,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4864,7 +4847,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4879,7 +4862,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4894,7 +4877,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4909,7 +4892,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4924,7 +4907,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4939,7 +4922,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4954,7 +4937,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4969,7 +4952,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -4983,7 +4966,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -4997,7 +4980,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -5011,7 +4994,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -5025,7 +5008,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5040,7 +5023,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5055,7 +5038,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5070,7 +5053,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5085,7 +5068,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5100,7 +5083,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5115,7 +5098,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5130,7 +5113,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5145,7 +5128,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5160,7 +5143,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5175,7 +5158,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5190,7 +5173,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5205,7 +5188,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5220,7 +5203,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5235,7 +5218,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5250,7 +5233,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5265,7 +5248,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5280,7 +5263,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5295,7 +5278,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5310,7 +5293,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5325,7 +5308,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5340,7 +5323,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5355,7 +5338,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5370,7 +5353,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5385,7 +5368,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5400,7 +5383,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5415,7 +5398,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5430,7 +5413,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5445,7 +5428,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5457,7 +5440,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5469,7 +5452,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5482,7 +5465,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5495,7 +5478,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5508,7 +5491,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5521,7 +5504,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5534,7 +5517,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5547,7 +5530,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5560,7 +5543,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5573,7 +5556,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5586,7 +5569,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5599,7 +5582,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5612,7 +5595,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5625,7 +5608,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5638,7 +5621,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5651,7 +5634,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5664,7 +5647,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5677,7 +5660,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5690,7 +5673,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5703,7 +5686,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5716,7 +5699,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5729,7 +5712,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5743,7 +5726,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5757,7 +5740,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5771,7 +5754,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5785,7 +5768,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5799,7 +5782,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5813,7 +5796,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5827,7 +5810,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5841,7 +5824,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5855,7 +5838,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5869,7 +5852,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5883,7 +5866,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5897,7 +5880,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5911,7 +5894,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5925,7 +5908,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5939,7 +5922,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5953,7 +5936,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5967,7 +5950,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5981,7 +5964,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5995,7 +5978,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6009,7 +5992,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6023,7 +6006,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6037,7 +6020,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6051,7 +6034,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6065,7 +6048,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6079,7 +6062,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6093,7 +6076,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6107,7 +6090,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6121,7 +6104,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6135,7 +6118,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6149,7 +6132,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6163,7 +6146,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6177,7 +6160,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6191,7 +6174,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6205,7 +6188,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6219,7 +6202,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6233,7 +6216,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6247,7 +6230,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6261,7 +6244,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6275,7 +6258,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6289,7 +6272,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6303,7 +6286,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6317,7 +6300,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6331,7 +6314,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6345,7 +6328,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6359,7 +6342,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6373,7 +6356,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6387,7 +6370,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6401,7 +6384,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6415,7 +6398,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6429,7 +6412,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6443,7 +6426,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6457,7 +6440,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6471,7 +6454,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6485,7 +6468,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6499,7 +6482,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6513,7 +6496,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6527,7 +6510,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6541,7 +6524,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6555,7 +6538,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6569,7 +6552,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6583,7 +6566,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6597,7 +6580,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -1064,34 +1064,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,6 +1113,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1512,9 +1512,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1527,7 +1527,7 @@
     <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="72" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
     <col min="10" max="10" width="106.1640625" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="17.5" customWidth="1"/>
@@ -1542,94 +1542,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="64" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="62"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="65"/>
     </row>
     <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="46" t="s">
@@ -4623,6 +4623,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4637,12 +4643,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14595" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1064,16 +1069,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,24 +1136,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1509,129 +1514,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="106.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="106.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="49" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="49" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
+    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="65"/>
-    </row>
-    <row r="3" spans="1:21" ht="16" thickTop="1">
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="50"/>
+    </row>
+    <row r="3" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>17</v>
       </c>
@@ -1690,7 +1695,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1756,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1812,7 +1817,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="154">
+    <row r="6" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1873,7 +1878,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1930,7 +1935,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="56">
+    <row r="8" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1989,7 +1994,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -2050,7 +2055,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -2109,7 +2114,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15">
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2170,7 +2175,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="112">
+    <row r="12" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2229,7 +2234,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2286,7 +2291,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2345,7 +2350,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2404,7 +2409,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2577,7 +2582,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2691,7 +2696,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2748,7 +2753,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2807,7 +2812,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2866,7 +2871,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2925,7 +2930,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2984,7 +2989,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -3041,7 +3046,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -3086,7 +3091,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="15">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3108,7 +3113,7 @@
         <v>26</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J28" s="40" t="s">
         <v>179</v>
@@ -3143,7 +3148,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3200,7 +3205,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -3257,7 +3262,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -3314,7 +3319,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -3337,7 +3342,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3360,7 +3365,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3383,7 +3388,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3406,7 +3411,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3429,7 +3434,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3452,7 +3457,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3475,7 +3480,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3498,7 +3503,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3521,7 +3526,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3544,7 +3549,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3567,7 +3572,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3590,7 +3595,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3613,7 +3618,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3636,7 +3641,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3659,7 +3664,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3682,7 +3687,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3705,7 +3710,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3728,7 +3733,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3751,7 +3756,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3774,7 +3779,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3797,7 +3802,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3820,7 +3825,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3843,7 +3848,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3866,7 +3871,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3889,7 +3894,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3912,7 +3917,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3935,7 +3940,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3958,7 +3963,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3981,7 +3986,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4004,7 +4009,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4027,7 +4032,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4050,7 +4055,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4073,7 +4078,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4096,7 +4101,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4119,7 +4124,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4142,7 +4147,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4165,7 +4170,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4188,7 +4193,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15">
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4211,7 +4216,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" ht="15">
+    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -4234,7 +4239,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="1:21" ht="15">
+    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -4257,378 +4262,372 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="74" spans="1:21" hidden="1"/>
-    <row r="75" spans="1:21" hidden="1"/>
-    <row r="76" spans="1:21" hidden="1"/>
-    <row r="77" spans="1:21" hidden="1"/>
-    <row r="78" spans="1:21" hidden="1"/>
-    <row r="79" spans="1:21" hidden="1"/>
-    <row r="80" spans="1:21" hidden="1"/>
-    <row r="81" spans="1:1" hidden="1"/>
-    <row r="82" spans="1:1" hidden="1"/>
-    <row r="83" spans="1:1" hidden="1"/>
-    <row r="84" spans="1:1" hidden="1"/>
-    <row r="85" spans="1:1" hidden="1"/>
-    <row r="86" spans="1:1" hidden="1"/>
-    <row r="87" spans="1:1" hidden="1">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1">
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1"/>
-    <row r="125" spans="1:1" hidden="1"/>
-    <row r="126" spans="1:1" hidden="1"/>
-    <row r="127" spans="1:1" hidden="1"/>
-    <row r="128" spans="1:1" hidden="1"/>
-    <row r="129" hidden="1"/>
-    <row r="130" hidden="1"/>
-    <row r="131" hidden="1"/>
-    <row r="132" hidden="1"/>
-    <row r="133" hidden="1"/>
-    <row r="134" hidden="1"/>
-    <row r="135" hidden="1"/>
-    <row r="136" hidden="1"/>
-    <row r="137" hidden="1"/>
-    <row r="138" hidden="1"/>
-    <row r="139" hidden="1"/>
-    <row r="140" hidden="1"/>
-    <row r="141" hidden="1"/>
-    <row r="142" hidden="1"/>
-    <row r="143" hidden="1"/>
-    <row r="144" hidden="1"/>
-    <row r="145" hidden="1"/>
-    <row r="146" hidden="1"/>
-    <row r="147" hidden="1"/>
-    <row r="148" hidden="1"/>
-    <row r="149" hidden="1"/>
-    <row r="150" hidden="1"/>
-    <row r="151" hidden="1"/>
-    <row r="152" hidden="1"/>
-    <row r="153" hidden="1"/>
-    <row r="154" hidden="1"/>
-    <row r="155" hidden="1"/>
-    <row r="156" hidden="1"/>
-    <row r="157" hidden="1"/>
-    <row r="158" hidden="1"/>
-    <row r="159" hidden="1"/>
-    <row r="160" hidden="1"/>
-    <row r="161" hidden="1"/>
-    <row r="162" hidden="1"/>
-    <row r="163" hidden="1"/>
-    <row r="164" hidden="1"/>
-    <row r="165" hidden="1"/>
-    <row r="166" hidden="1"/>
-    <row r="167" hidden="1"/>
-    <row r="168" hidden="1"/>
-    <row r="169" hidden="1"/>
-    <row r="170" hidden="1"/>
-    <row r="171" hidden="1"/>
-    <row r="172" hidden="1"/>
-    <row r="173" hidden="1"/>
-    <row r="174" hidden="1"/>
-    <row r="175" hidden="1"/>
-    <row r="176" hidden="1"/>
-    <row r="177" hidden="1"/>
-    <row r="178" hidden="1"/>
-    <row r="179" hidden="1"/>
-    <row r="180" hidden="1"/>
-    <row r="181" hidden="1"/>
-    <row r="182" hidden="1"/>
-    <row r="183" hidden="1"/>
-    <row r="184" hidden="1"/>
-    <row r="185" hidden="1"/>
-    <row r="186" hidden="1"/>
-    <row r="187" hidden="1"/>
-    <row r="188" hidden="1"/>
-    <row r="189" hidden="1"/>
-    <row r="190" hidden="1"/>
-    <row r="191" hidden="1"/>
-    <row r="192" hidden="1"/>
-    <row r="193" hidden="1"/>
-    <row r="194" hidden="1"/>
-    <row r="195" hidden="1"/>
-    <row r="196" hidden="1"/>
-    <row r="197" hidden="1"/>
-    <row r="198" hidden="1"/>
-    <row r="199" hidden="1"/>
-    <row r="200" hidden="1"/>
-    <row r="201" hidden="1"/>
-    <row r="202" hidden="1"/>
-    <row r="203" hidden="1"/>
-    <row r="204" hidden="1"/>
-    <row r="205" hidden="1"/>
-    <row r="206" hidden="1"/>
-    <row r="207" hidden="1"/>
-    <row r="208" hidden="1"/>
-    <row r="209" hidden="1"/>
-    <row r="210" hidden="1"/>
-    <row r="211" hidden="1"/>
-    <row r="212" hidden="1"/>
-    <row r="213" hidden="1"/>
-    <row r="214" hidden="1"/>
-    <row r="215" hidden="1"/>
-    <row r="216" hidden="1"/>
-    <row r="217" hidden="1"/>
-    <row r="218" hidden="1"/>
-    <row r="219" hidden="1"/>
-    <row r="220" hidden="1"/>
-    <row r="221" hidden="1"/>
-    <row r="222" hidden="1"/>
-    <row r="223" hidden="1"/>
-    <row r="224" hidden="1"/>
-    <row r="225" hidden="1"/>
-    <row r="226" hidden="1"/>
-    <row r="227" hidden="1"/>
-    <row r="228" hidden="1"/>
-    <row r="229" hidden="1"/>
-    <row r="230" hidden="1"/>
-    <row r="231" hidden="1"/>
-    <row r="232" hidden="1"/>
-    <row r="233" hidden="1"/>
-    <row r="234" hidden="1"/>
-    <row r="235" hidden="1"/>
-    <row r="236" hidden="1"/>
-    <row r="237" hidden="1"/>
-    <row r="238" hidden="1"/>
-    <row r="239" hidden="1"/>
-    <row r="240" hidden="1"/>
-    <row r="241" hidden="1"/>
-    <row r="242" hidden="1"/>
-    <row r="243" hidden="1"/>
-    <row r="244" hidden="1"/>
-    <row r="245" hidden="1"/>
-    <row r="246" hidden="1"/>
-    <row r="247" hidden="1"/>
-    <row r="248" hidden="1"/>
-    <row r="249" hidden="1"/>
-    <row r="250" hidden="1"/>
-    <row r="251" hidden="1"/>
-    <row r="252" hidden="1"/>
-    <row r="253" hidden="1"/>
-    <row r="254" hidden="1"/>
-    <row r="255" hidden="1"/>
-    <row r="256" hidden="1"/>
-    <row r="257" hidden="1"/>
-    <row r="258" hidden="1"/>
-    <row r="259" hidden="1"/>
-    <row r="260" hidden="1"/>
-    <row r="261" hidden="1"/>
-    <row r="262" hidden="1"/>
-    <row r="263" hidden="1"/>
-    <row r="264" hidden="1"/>
-    <row r="265" hidden="1"/>
-    <row r="266" hidden="1"/>
-    <row r="267" hidden="1"/>
-    <row r="268" hidden="1"/>
-    <row r="269" hidden="1"/>
-    <row r="270" hidden="1"/>
-    <row r="271" hidden="1"/>
-    <row r="272" hidden="1"/>
-    <row r="273" hidden="1"/>
-    <row r="274" hidden="1"/>
-    <row r="275" hidden="1"/>
-    <row r="276" hidden="1"/>
-    <row r="277" hidden="1"/>
-    <row r="278" hidden="1"/>
-    <row r="279" hidden="1"/>
-    <row r="280" hidden="1"/>
-    <row r="281" hidden="1"/>
-    <row r="282" hidden="1"/>
-    <row r="283" hidden="1"/>
-    <row r="284" hidden="1"/>
-    <row r="285" hidden="1"/>
-    <row r="286" hidden="1"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4643,6 +4642,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4690,34 +4695,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="2"/>
-    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.33203125" style="2"/>
+    <col min="13" max="13" width="11.28515625" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4734,7 +4739,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4758,7 +4763,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4777,7 +4782,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4796,7 +4801,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4812,7 +4817,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4829,7 +4834,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +4851,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4861,7 +4866,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4876,7 +4881,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4891,7 +4896,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4906,7 +4911,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4921,7 +4926,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4936,7 +4941,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4951,7 +4956,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4966,7 +4971,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4981,7 +4986,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -4995,7 +5000,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -5009,7 +5014,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -5023,7 +5028,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -5037,7 +5042,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5052,7 +5057,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5067,7 +5072,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5082,7 +5087,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5097,7 +5102,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5112,7 +5117,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5127,7 +5132,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5142,7 +5147,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5157,7 +5162,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5172,7 +5177,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5187,7 +5192,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5202,7 +5207,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5217,7 +5222,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5232,7 +5237,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5247,7 +5252,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5262,7 +5267,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5277,7 +5282,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5292,7 +5297,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5307,7 +5312,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5322,7 +5327,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5337,7 +5342,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5352,7 +5357,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5367,7 +5372,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5382,7 +5387,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5397,7 +5402,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5412,7 +5417,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5427,7 +5432,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5442,7 +5447,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5457,7 +5462,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5469,7 +5474,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5481,7 +5486,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5494,7 +5499,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5507,7 +5512,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5520,7 +5525,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5533,7 +5538,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5546,7 +5551,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5559,7 +5564,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5572,7 +5577,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5585,7 +5590,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5598,7 +5603,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5611,7 +5616,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5624,7 +5629,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5637,7 +5642,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5650,7 +5655,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5663,7 +5668,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5676,7 +5681,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5689,7 +5694,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5702,7 +5707,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5715,7 +5720,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5728,7 +5733,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5741,7 +5746,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5755,7 +5760,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5769,7 +5774,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5783,7 +5788,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5797,7 +5802,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5811,7 +5816,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5825,7 +5830,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5839,7 +5844,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5853,7 +5858,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5867,7 +5872,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5881,7 +5886,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5895,7 +5900,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5909,7 +5914,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5923,7 +5928,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5937,7 +5942,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5951,7 +5956,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5965,7 +5970,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5979,7 +5984,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5993,7 +5998,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6007,7 +6012,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6021,7 +6026,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6035,7 +6040,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6049,7 +6054,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6063,7 +6068,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6077,7 +6082,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6091,7 +6096,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6105,7 +6110,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6119,7 +6124,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6133,7 +6138,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6147,7 +6152,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6161,7 +6166,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6175,7 +6180,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6189,7 +6194,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6203,7 +6208,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6217,7 +6222,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6231,7 +6236,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6245,7 +6250,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6259,7 +6264,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6273,7 +6278,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6287,7 +6292,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6301,7 +6306,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6315,7 +6320,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6329,7 +6334,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6343,7 +6348,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6357,7 +6362,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6371,7 +6376,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6385,7 +6390,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6399,7 +6404,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6413,7 +6418,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6427,7 +6432,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6441,7 +6446,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6455,7 +6460,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6469,7 +6474,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6483,7 +6488,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6497,7 +6502,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6511,7 +6516,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6525,7 +6530,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6539,7 +6544,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6553,7 +6558,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6567,7 +6572,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6581,7 +6586,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6595,7 +6600,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6609,7 +6614,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14595" tabRatio="504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="218">
   <si>
     <t>Asignatura</t>
   </si>
@@ -672,24 +667,12 @@
     <t>Recurso M5A-01</t>
   </si>
   <si>
-    <t>Recurso M5A-02</t>
-  </si>
-  <si>
-    <t>Recurso M4A-04</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Preguntas y problemas para identificar el MRU y MRUA</t>
   </si>
   <si>
-    <t>Recurso M101-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refuerza tu aprendizaje: Preguntas y problemas de lanzamiento vertical y caída libre </t>
   </si>
   <si>
-    <t>Recurso M101-02</t>
-  </si>
-  <si>
     <t>Banco de actividades: El movimiento en una dimensión</t>
   </si>
   <si>
@@ -703,6 +686,15 @@
   </si>
   <si>
     <t>Actividad para identificar propiedades de los vectores en la caída libre y el lanzamiento vertical</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t>Recurso M101A-03</t>
   </si>
 </sst>
 </file>
@@ -761,6 +753,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1069,34 +1062,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,6 +1111,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1517,9 +1510,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,8 +1530,8 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1547,96 +1540,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="64" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="62"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="50"/>
-    </row>
-    <row r="3" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="65"/>
+    </row>
+    <row r="3" spans="1:21" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>17</v>
       </c>
@@ -1680,7 +1673,7 @@
         <v>19</v>
       </c>
       <c r="Q3" s="43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>189</v>
@@ -1695,7 +1688,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1731,9 +1724,7 @@
         <v>8</v>
       </c>
       <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="N4" s="8"/>
       <c r="O4" s="42" t="s">
         <v>181</v>
       </c>
@@ -1756,7 +1747,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1802,7 +1793,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
         <v>196</v>
@@ -1817,7 +1808,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1862,20 +1853,20 @@
       <c r="P6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="44" t="s">
-        <v>193</v>
+      <c r="Q6" s="44">
+        <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1920,7 +1911,7 @@
         <v>19</v>
       </c>
       <c r="Q7" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
         <v>196</v>
@@ -1935,7 +1926,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -2030,9 +2021,7 @@
         <v>8</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="N9" s="8"/>
       <c r="O9" s="42" t="s">
         <v>185</v>
       </c>
@@ -2099,7 +2088,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
         <v>196</v>
@@ -2150,9 +2139,7 @@
         <v>8</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="N11" s="8"/>
       <c r="O11" s="42" t="s">
         <v>185</v>
       </c>
@@ -2175,7 +2162,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2209,9 +2196,7 @@
         <v>8</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="N12" s="8"/>
       <c r="O12" s="42" t="s">
         <v>186</v>
       </c>
@@ -2325,9 +2310,7 @@
         <v>8</v>
       </c>
       <c r="M14" s="8"/>
-      <c r="N14" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="N14" s="8"/>
       <c r="O14" s="42" t="s">
         <v>188</v>
       </c>
@@ -2394,7 +2377,7 @@
         <v>19</v>
       </c>
       <c r="Q15" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
         <v>196</v>
@@ -2453,7 +2436,7 @@
         <v>19</v>
       </c>
       <c r="Q16" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
         <v>196</v>
@@ -2486,7 +2469,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H17" s="45">
         <v>15</v>
@@ -2495,7 +2478,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2512,7 +2495,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
         <v>196</v>
@@ -2521,7 +2504,7 @@
         <v>197</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>199</v>
@@ -2671,9 +2654,7 @@
         <v>8</v>
       </c>
       <c r="M20" s="8"/>
-      <c r="N20" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="N20" s="8"/>
       <c r="O20" s="42" t="s">
         <v>185</v>
       </c>
@@ -2729,9 +2710,7 @@
       <c r="L21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="42"/>
       <c r="P21" s="25" t="s">
@@ -2797,7 +2776,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
         <v>196</v>
@@ -2830,7 +2809,7 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H23" s="37">
         <v>21</v>
@@ -2839,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2856,7 +2835,7 @@
         <v>19</v>
       </c>
       <c r="Q23" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
         <v>196</v>
@@ -2865,7 +2844,7 @@
         <v>197</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>199</v>
@@ -2905,9 +2884,7 @@
         <v>8</v>
       </c>
       <c r="M24" s="8"/>
-      <c r="N24" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N24" s="8"/>
       <c r="O24" s="42" t="s">
         <v>185</v>
       </c>
@@ -2964,9 +2941,7 @@
         <v>8</v>
       </c>
       <c r="M25" s="8"/>
-      <c r="N25" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N25" s="8"/>
       <c r="O25" s="42" t="s">
         <v>185</v>
       </c>
@@ -3031,7 +3006,7 @@
         <v>19</v>
       </c>
       <c r="Q26" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>189</v>
@@ -3133,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="Q28" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R28" s="11" t="s">
         <v>196</v>
@@ -3190,7 +3165,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R29" s="11" t="s">
         <v>196</v>
@@ -3199,7 +3174,7 @@
         <v>197</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>199</v>
@@ -3247,7 +3222,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R30" s="11" t="s">
         <v>196</v>
@@ -3256,7 +3231,7 @@
         <v>197</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="U30" s="10" t="s">
         <v>199</v>
@@ -3278,7 +3253,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="32" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H31" s="37">
         <v>29</v>
@@ -3287,7 +3262,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
@@ -3304,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="Q31" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R31" s="11" t="s">
         <v>196</v>
@@ -3313,7 +3288,7 @@
         <v>197</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U31" s="10" t="s">
         <v>199</v>
@@ -4624,10 +4599,13 @@
     <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4642,12 +4620,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14595" tabRatio="504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -965,7 +960,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1066,37 +1061,16 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,6 +1110,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1514,130 +1506,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="106.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="106.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="63" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="62"/>
+    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="50"/>
-    </row>
-    <row r="3" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="64"/>
+    </row>
+    <row r="3" spans="1:21" ht="16" thickTop="1">
+      <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -1695,7 +1687,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1756,7 +1748,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1817,7 +1809,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="154">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1878,7 +1870,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1935,7 +1927,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="56">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1994,7 +1986,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -2055,7 +2047,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -2114,7 +2106,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2175,7 +2167,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="112">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2234,7 +2226,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2291,7 +2283,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2350,7 +2342,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2409,7 +2401,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2468,7 +2460,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2527,7 +2519,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2582,7 +2574,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2637,7 +2629,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2696,7 +2688,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2753,7 +2745,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2812,7 +2804,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2871,7 +2863,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2930,7 +2922,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2989,7 +2981,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -3046,7 +3038,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -3091,7 +3083,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3148,7 +3140,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3205,7 +3197,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -3262,7 +3254,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -3319,7 +3311,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -3342,7 +3334,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3365,7 +3357,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3388,7 +3380,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3411,7 +3403,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3434,7 +3426,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3457,7 +3449,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3480,7 +3472,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3503,7 +3495,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3526,7 +3518,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3549,7 +3541,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3572,7 +3564,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3595,7 +3587,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3618,7 +3610,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3641,7 +3633,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3664,7 +3656,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3687,7 +3679,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3710,7 +3702,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3733,7 +3725,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3756,7 +3748,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3779,7 +3771,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3802,7 +3794,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3825,7 +3817,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3848,7 +3840,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3871,7 +3863,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3894,7 +3886,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3917,7 +3909,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3940,7 +3932,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3963,7 +3955,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3986,7 +3978,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4009,7 +4001,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4032,7 +4024,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4055,7 +4047,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4078,7 +4070,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4101,7 +4093,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4124,7 +4116,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4147,7 +4139,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4170,7 +4162,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="15">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4193,7 +4185,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="15">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4216,7 +4208,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="15">
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -4239,7 +4231,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="15">
       <c r="A72" s="4"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -4262,372 +4254,378 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" hidden="1"/>
+    <row r="75" spans="1:21" hidden="1"/>
+    <row r="76" spans="1:21" hidden="1"/>
+    <row r="77" spans="1:21" hidden="1"/>
+    <row r="78" spans="1:21" hidden="1"/>
+    <row r="79" spans="1:21" hidden="1"/>
+    <row r="80" spans="1:21" hidden="1"/>
+    <row r="81" spans="1:1" hidden="1"/>
+    <row r="82" spans="1:1" hidden="1"/>
+    <row r="83" spans="1:1" hidden="1"/>
+    <row r="84" spans="1:1" hidden="1"/>
+    <row r="85" spans="1:1" hidden="1"/>
+    <row r="86" spans="1:1" hidden="1"/>
+    <row r="87" spans="1:1" hidden="1">
       <c r="A87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" hidden="1">
       <c r="A88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" hidden="1">
       <c r="A89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" hidden="1">
       <c r="A90" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" hidden="1">
       <c r="A91" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" hidden="1">
       <c r="A92" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" hidden="1">
       <c r="A93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" hidden="1">
       <c r="A94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" hidden="1">
       <c r="A95" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" hidden="1">
       <c r="A96" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" hidden="1">
       <c r="A97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" hidden="1">
       <c r="A98" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" hidden="1">
       <c r="A99" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" hidden="1">
       <c r="A100" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" hidden="1">
       <c r="A101" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" hidden="1">
       <c r="A102" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" hidden="1">
       <c r="A103" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" hidden="1">
       <c r="A104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" hidden="1">
       <c r="A105" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" hidden="1">
       <c r="A106" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" hidden="1">
       <c r="A107" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" hidden="1">
       <c r="A108" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" hidden="1">
       <c r="A109" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" hidden="1">
       <c r="A110" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" hidden="1">
       <c r="A111" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" hidden="1">
       <c r="A112" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" hidden="1">
       <c r="A113" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" hidden="1">
       <c r="A114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1">
       <c r="A115" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1">
       <c r="A116" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1">
       <c r="A117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1">
       <c r="A118" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1">
       <c r="A119" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" hidden="1">
       <c r="A120" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" hidden="1">
       <c r="A121" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" hidden="1">
       <c r="A122" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" hidden="1">
       <c r="A123" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1"/>
+    <row r="125" spans="1:1" hidden="1"/>
+    <row r="126" spans="1:1" hidden="1"/>
+    <row r="127" spans="1:1" hidden="1"/>
+    <row r="128" spans="1:1" hidden="1"/>
+    <row r="129" hidden="1"/>
+    <row r="130" hidden="1"/>
+    <row r="131" hidden="1"/>
+    <row r="132" hidden="1"/>
+    <row r="133" hidden="1"/>
+    <row r="134" hidden="1"/>
+    <row r="135" hidden="1"/>
+    <row r="136" hidden="1"/>
+    <row r="137" hidden="1"/>
+    <row r="138" hidden="1"/>
+    <row r="139" hidden="1"/>
+    <row r="140" hidden="1"/>
+    <row r="141" hidden="1"/>
+    <row r="142" hidden="1"/>
+    <row r="143" hidden="1"/>
+    <row r="144" hidden="1"/>
+    <row r="145" hidden="1"/>
+    <row r="146" hidden="1"/>
+    <row r="147" hidden="1"/>
+    <row r="148" hidden="1"/>
+    <row r="149" hidden="1"/>
+    <row r="150" hidden="1"/>
+    <row r="151" hidden="1"/>
+    <row r="152" hidden="1"/>
+    <row r="153" hidden="1"/>
+    <row r="154" hidden="1"/>
+    <row r="155" hidden="1"/>
+    <row r="156" hidden="1"/>
+    <row r="157" hidden="1"/>
+    <row r="158" hidden="1"/>
+    <row r="159" hidden="1"/>
+    <row r="160" hidden="1"/>
+    <row r="161" hidden="1"/>
+    <row r="162" hidden="1"/>
+    <row r="163" hidden="1"/>
+    <row r="164" hidden="1"/>
+    <row r="165" hidden="1"/>
+    <row r="166" hidden="1"/>
+    <row r="167" hidden="1"/>
+    <row r="168" hidden="1"/>
+    <row r="169" hidden="1"/>
+    <row r="170" hidden="1"/>
+    <row r="171" hidden="1"/>
+    <row r="172" hidden="1"/>
+    <row r="173" hidden="1"/>
+    <row r="174" hidden="1"/>
+    <row r="175" hidden="1"/>
+    <row r="176" hidden="1"/>
+    <row r="177" hidden="1"/>
+    <row r="178" hidden="1"/>
+    <row r="179" hidden="1"/>
+    <row r="180" hidden="1"/>
+    <row r="181" hidden="1"/>
+    <row r="182" hidden="1"/>
+    <row r="183" hidden="1"/>
+    <row r="184" hidden="1"/>
+    <row r="185" hidden="1"/>
+    <row r="186" hidden="1"/>
+    <row r="187" hidden="1"/>
+    <row r="188" hidden="1"/>
+    <row r="189" hidden="1"/>
+    <row r="190" hidden="1"/>
+    <row r="191" hidden="1"/>
+    <row r="192" hidden="1"/>
+    <row r="193" hidden="1"/>
+    <row r="194" hidden="1"/>
+    <row r="195" hidden="1"/>
+    <row r="196" hidden="1"/>
+    <row r="197" hidden="1"/>
+    <row r="198" hidden="1"/>
+    <row r="199" hidden="1"/>
+    <row r="200" hidden="1"/>
+    <row r="201" hidden="1"/>
+    <row r="202" hidden="1"/>
+    <row r="203" hidden="1"/>
+    <row r="204" hidden="1"/>
+    <row r="205" hidden="1"/>
+    <row r="206" hidden="1"/>
+    <row r="207" hidden="1"/>
+    <row r="208" hidden="1"/>
+    <row r="209" hidden="1"/>
+    <row r="210" hidden="1"/>
+    <row r="211" hidden="1"/>
+    <row r="212" hidden="1"/>
+    <row r="213" hidden="1"/>
+    <row r="214" hidden="1"/>
+    <row r="215" hidden="1"/>
+    <row r="216" hidden="1"/>
+    <row r="217" hidden="1"/>
+    <row r="218" hidden="1"/>
+    <row r="219" hidden="1"/>
+    <row r="220" hidden="1"/>
+    <row r="221" hidden="1"/>
+    <row r="222" hidden="1"/>
+    <row r="223" hidden="1"/>
+    <row r="224" hidden="1"/>
+    <row r="225" hidden="1"/>
+    <row r="226" hidden="1"/>
+    <row r="227" hidden="1"/>
+    <row r="228" hidden="1"/>
+    <row r="229" hidden="1"/>
+    <row r="230" hidden="1"/>
+    <row r="231" hidden="1"/>
+    <row r="232" hidden="1"/>
+    <row r="233" hidden="1"/>
+    <row r="234" hidden="1"/>
+    <row r="235" hidden="1"/>
+    <row r="236" hidden="1"/>
+    <row r="237" hidden="1"/>
+    <row r="238" hidden="1"/>
+    <row r="239" hidden="1"/>
+    <row r="240" hidden="1"/>
+    <row r="241" hidden="1"/>
+    <row r="242" hidden="1"/>
+    <row r="243" hidden="1"/>
+    <row r="244" hidden="1"/>
+    <row r="245" hidden="1"/>
+    <row r="246" hidden="1"/>
+    <row r="247" hidden="1"/>
+    <row r="248" hidden="1"/>
+    <row r="249" hidden="1"/>
+    <row r="250" hidden="1"/>
+    <row r="251" hidden="1"/>
+    <row r="252" hidden="1"/>
+    <row r="253" hidden="1"/>
+    <row r="254" hidden="1"/>
+    <row r="255" hidden="1"/>
+    <row r="256" hidden="1"/>
+    <row r="257" hidden="1"/>
+    <row r="258" hidden="1"/>
+    <row r="259" hidden="1"/>
+    <row r="260" hidden="1"/>
+    <row r="261" hidden="1"/>
+    <row r="262" hidden="1"/>
+    <row r="263" hidden="1"/>
+    <row r="264" hidden="1"/>
+    <row r="265" hidden="1"/>
+    <row r="266" hidden="1"/>
+    <row r="267" hidden="1"/>
+    <row r="268" hidden="1"/>
+    <row r="269" hidden="1"/>
+    <row r="270" hidden="1"/>
+    <row r="271" hidden="1"/>
+    <row r="272" hidden="1"/>
+    <row r="273" hidden="1"/>
+    <row r="274" hidden="1"/>
+    <row r="275" hidden="1"/>
+    <row r="276" hidden="1"/>
+    <row r="277" hidden="1"/>
+    <row r="278" hidden="1"/>
+    <row r="279" hidden="1"/>
+    <row r="280" hidden="1"/>
+    <row r="281" hidden="1"/>
+    <row r="282" hidden="1"/>
+    <row r="283" hidden="1"/>
+    <row r="284" hidden="1"/>
+    <row r="285" hidden="1"/>
+    <row r="286" hidden="1"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4642,12 +4640,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4695,34 +4687,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="2"/>
-    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.28515625" style="2"/>
+    <col min="13" max="13" width="11.33203125" style="2"/>
+    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4739,7 +4731,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4763,7 +4755,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4782,7 +4774,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4801,7 +4793,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4817,7 +4809,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4834,7 +4826,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4851,7 +4843,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4866,7 +4858,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4881,7 +4873,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4896,7 +4888,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4911,7 +4903,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4926,7 +4918,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4941,7 +4933,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4956,7 +4948,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4971,7 +4963,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4986,7 +4978,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -5000,7 +4992,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -5014,7 +5006,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -5028,7 +5020,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -5042,7 +5034,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5057,7 +5049,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5072,7 +5064,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5087,7 +5079,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5102,7 +5094,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5117,7 +5109,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5132,7 +5124,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5147,7 +5139,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5162,7 +5154,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5177,7 +5169,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5192,7 +5184,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5207,7 +5199,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5222,7 +5214,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5237,7 +5229,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5252,7 +5244,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5267,7 +5259,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5282,7 +5274,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5297,7 +5289,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5312,7 +5304,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5327,7 +5319,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5342,7 +5334,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5357,7 +5349,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5372,7 +5364,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5387,7 +5379,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5402,7 +5394,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5417,7 +5409,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5432,7 +5424,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5447,7 +5439,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5462,7 +5454,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5474,7 +5466,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5486,7 +5478,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5499,7 +5491,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5512,7 +5504,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5525,7 +5517,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5538,7 +5530,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5551,7 +5543,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5564,7 +5556,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5577,7 +5569,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5590,7 +5582,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5603,7 +5595,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5616,7 +5608,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5629,7 +5621,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5642,7 +5634,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5655,7 +5647,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5668,7 +5660,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5681,7 +5673,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5694,7 +5686,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5707,7 +5699,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5720,7 +5712,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5733,7 +5725,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5746,7 +5738,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5760,7 +5752,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5774,7 +5766,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5788,7 +5780,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5802,7 +5794,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5816,7 +5808,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5830,7 +5822,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5844,7 +5836,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5858,7 +5850,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5872,7 +5864,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5886,7 +5878,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5900,7 +5892,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5914,7 +5906,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5928,7 +5920,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5942,7 +5934,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5956,7 +5948,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5970,7 +5962,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5984,7 +5976,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5998,7 +5990,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6012,7 +6004,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6026,7 +6018,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6040,7 +6032,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6054,7 +6046,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6068,7 +6060,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6082,7 +6074,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6096,7 +6088,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6110,7 +6102,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6124,7 +6116,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6138,7 +6130,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6152,7 +6144,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6166,7 +6158,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6180,7 +6172,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6194,7 +6186,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6208,7 +6200,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6222,7 +6214,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6236,7 +6228,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6250,7 +6242,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6264,7 +6256,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6278,7 +6270,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6292,7 +6284,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6306,7 +6298,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6320,7 +6312,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6334,7 +6326,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6348,7 +6340,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6362,7 +6354,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6376,7 +6368,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6390,7 +6382,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6404,7 +6396,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6418,7 +6410,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6432,7 +6424,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6446,7 +6438,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6460,7 +6452,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6474,7 +6466,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6488,7 +6480,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6502,7 +6494,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6516,7 +6508,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6530,7 +6522,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6544,7 +6536,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6558,7 +6550,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6572,7 +6564,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6586,7 +6578,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6600,7 +6592,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6614,7 +6606,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="504"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14060" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="221">
   <si>
     <t>Asignatura</t>
   </si>
@@ -698,6 +698,12 @@
   </si>
   <si>
     <t>Actividad para identificar propiedades de los vectores en la caída libre y el lanzamiento vertical</t>
+  </si>
+  <si>
+    <t>Analiza el movimiento de los cuerpos</t>
+  </si>
+  <si>
+    <t>Interpreta situaciones problema en el MRUA</t>
   </si>
 </sst>
 </file>
@@ -1061,16 +1067,34 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1110,24 +1134,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1509,9 +1515,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1539,94 +1545,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="66"/>
+      <c r="O1" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="48" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="55"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="64"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
@@ -3156,7 +3162,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="9"/>
       <c r="G29" s="34" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="H29" s="37">
         <v>27</v>
@@ -3213,7 +3219,7 @@
       <c r="E30" s="31"/>
       <c r="F30" s="9"/>
       <c r="G30" s="34" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="H30" s="38">
         <v>28</v>
@@ -4620,12 +4626,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4640,6 +4640,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14060" tabRatio="504"/>
+    <workbookView minimized="1" xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14080" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -891,8 +891,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1067,34 +1069,16 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,8 +1120,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="75">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1174,6 +1176,7 @@
     <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1210,6 +1213,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1515,9 +1519,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1545,94 +1549,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="63" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="61"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="64"/>
     </row>
     <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
@@ -4626,6 +4630,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4640,12 +4650,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14080" tabRatio="504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="223">
   <si>
     <t>Asignatura</t>
   </si>
@@ -704,6 +704,12 @@
   </si>
   <si>
     <t>Interpreta situaciones problema en el MRUA</t>
+  </si>
+  <si>
+    <t>Revisa qué sabes sobre el tema Movimiento en una dimensión</t>
+  </si>
+  <si>
+    <t>Revisa tus conocimientos sobre el tema Movimiento en una dimensión</t>
   </si>
 </sst>
 </file>
@@ -891,7 +897,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -967,8 +973,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1066,9 +1080,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1139,7 +1150,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="83">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1177,6 +1188,10 @@
     <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1214,6 +1229,10 @@
     <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1519,9 +1538,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:U31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1549,94 +1568,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="59"/>
+      <c r="O1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="62" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="55"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="64"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="63"/>
     </row>
     <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
@@ -1839,7 +1858,7 @@
       <c r="G6" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="37">
         <v>4</v>
       </c>
       <c r="I6" s="21" t="s">
@@ -1898,7 +1917,7 @@
       <c r="G7" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="38">
         <v>5</v>
       </c>
       <c r="I7" s="21" t="s">
@@ -1957,7 +1976,7 @@
       <c r="G8" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -2195,7 +2214,7 @@
       <c r="G12" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
@@ -2254,7 +2273,7 @@
       <c r="G13" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="38">
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -2311,7 +2330,7 @@
       <c r="G14" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="37">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -2490,7 +2509,7 @@
       <c r="G17" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="37">
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -2657,7 +2676,7 @@
       <c r="G20" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="37">
         <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -2768,12 +2787,10 @@
       <c r="D22" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>131</v>
-      </c>
+      <c r="E22" s="31"/>
       <c r="F22" s="9"/>
       <c r="G22" s="34" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="H22" s="38">
         <v>20</v>
@@ -2782,7 +2799,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2794,9 +2811,9 @@
       <c r="N22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="42"/>
-      <c r="P22" s="25" t="s">
-        <v>19</v>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="Q22" s="44">
         <v>10</v>
@@ -2808,7 +2825,7 @@
         <v>197</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="U22" s="10" t="s">
         <v>199</v>
@@ -2832,7 +2849,7 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="34" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="H23" s="37">
         <v>21</v>
@@ -2841,7 +2858,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2851,7 +2868,7 @@
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O23" s="42"/>
       <c r="P23" s="25" t="s">
@@ -2867,7 +2884,7 @@
         <v>197</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>199</v>
@@ -2884,52 +2901,52 @@
         <v>123</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="31"/>
+        <v>127</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>131</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="38">
+        <v>212</v>
+      </c>
+      <c r="H24" s="37">
         <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="42" t="s">
-        <v>185</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O24" s="42"/>
       <c r="P24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="44" t="s">
-        <v>193</v>
+      <c r="Q24" s="44">
+        <v>10</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15">
@@ -2943,52 +2960,50 @@
         <v>123</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="9"/>
       <c r="G25" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="37">
+        <v>220</v>
+      </c>
+      <c r="H25" s="38">
         <v>23</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O25" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="P25" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="44" t="s">
-        <v>193</v>
+        <v>32</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="44">
+        <v>10</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15">
@@ -3007,45 +3022,47 @@
       <c r="E26" s="31"/>
       <c r="F26" s="9"/>
       <c r="G26" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" s="38">
+        <v>151</v>
+      </c>
+      <c r="H26" s="37">
         <v>24</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O26" s="42" t="s">
+        <v>185</v>
+      </c>
       <c r="P26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="44">
-        <v>10</v>
+      <c r="Q26" s="44" t="s">
+        <v>193</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15">
@@ -3059,12 +3076,12 @@
         <v>123</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="9"/>
       <c r="G27" s="34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H27" s="37">
         <v>25</v>
@@ -3073,25 +3090,39 @@
         <v>20</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
+      <c r="N27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O27" s="42" t="s">
+        <v>185</v>
+      </c>
       <c r="P27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="10"/>
+      <c r="Q27" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="28" spans="1:21" ht="15">
       <c r="A28" s="18" t="s">
@@ -3104,21 +3135,21 @@
         <v>123</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="9"/>
       <c r="G28" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H28" s="38">
         <v>26</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3126,10 +3157,10 @@
       <c r="L28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="M28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="8"/>
       <c r="O28" s="9"/>
       <c r="P28" s="25" t="s">
         <v>19</v>
@@ -3138,16 +3169,16 @@
         <v>10</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15">
@@ -3166,7 +3197,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="9"/>
       <c r="G29" s="34" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="H29" s="37">
         <v>27</v>
@@ -3175,37 +3206,25 @@
         <v>20</v>
       </c>
       <c r="J29" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M29" s="8"/>
-      <c r="N29" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="N29" s="8"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="44">
-        <v>10</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>199</v>
-      </c>
+      <c r="P29" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="10"/>
     </row>
     <row r="30" spans="1:21" ht="15">
       <c r="A30" s="18" t="s">
@@ -3223,13 +3242,13 @@
       <c r="E30" s="31"/>
       <c r="F30" s="9"/>
       <c r="G30" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="H30" s="38">
+        <v>155</v>
+      </c>
+      <c r="H30" s="37">
         <v>28</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J30" s="40" t="s">
         <v>179</v>
@@ -3242,11 +3261,11 @@
       </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="9" t="s">
-        <v>20</v>
+      <c r="P30" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="Q30" s="44">
         <v>10</v>
@@ -3258,7 +3277,7 @@
         <v>197</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U30" s="10" t="s">
         <v>199</v>
@@ -3282,7 +3301,7 @@
       <c r="G31" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="38">
         <v>29</v>
       </c>
       <c r="I31" s="5" t="s">
@@ -4672,7 +4691,7 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K72 I3:I72 P3:P72</xm:sqref>
+          <xm:sqref>K3:K72 P3:P72 I3:I72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02F.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14295" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -494,13 +499,7 @@
     <t>Evaluación</t>
   </si>
   <si>
-    <t>Actividad que permite identificar preconceptos acerca del movimiento de los cuerpos</t>
-  </si>
-  <si>
     <t>Actividad que permite entender el significado de las magnitudes más utilizadas en el estudio de los movimientos</t>
-  </si>
-  <si>
-    <t>Con esta actividad reforzarás e identificarás las unidades del SI y las magnitudes más utilizadas en el estudio de los movimientos</t>
   </si>
   <si>
     <t>Con esta actividad diferenciarás los sistemas de referencia</t>
@@ -710,6 +709,12 @@
   </si>
   <si>
     <t>Revisa tus conocimientos sobre el tema Movimiento en una dimensión</t>
+  </si>
+  <si>
+    <t>Interactivo que permite identificar preconceptos acerca del movimiento de los cuerpos</t>
+  </si>
+  <si>
+    <t>Actividad para identificar las unidades del SI y las magnitudes más utilizadas en el estudio de los movimientos</t>
   </si>
 </sst>
 </file>
@@ -1080,16 +1085,34 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1129,24 +1152,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1535,129 +1540,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="106.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="106.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="65"/>
+      <c r="O1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="S1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="54"/>
+    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="60"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="63"/>
-    </row>
-    <row r="3" spans="1:21" ht="16" thickTop="1">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="48"/>
+    </row>
+    <row r="3" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>20</v>
@@ -1695,7 +1700,7 @@
       </c>
       <c r="N3" s="24"/>
       <c r="O3" s="41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P3" s="25" t="s">
         <v>19</v>
@@ -1704,19 +1709,19 @@
         <v>10</v>
       </c>
       <c r="R3" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="T3" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="U3" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="T3" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15">
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>19</v>
@@ -1756,28 +1761,28 @@
         <v>23</v>
       </c>
       <c r="O4" s="42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P4" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q4" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>134</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1804,7 +1809,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1817,7 +1822,7 @@
         <v>29</v>
       </c>
       <c r="O5" s="42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="25" t="s">
         <v>19</v>
@@ -1826,19 +1831,19 @@
         <v>10</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T5" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="U5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T5" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="154">
+    </row>
+    <row r="6" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1865,7 +1870,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -1878,28 +1883,28 @@
         <v>52</v>
       </c>
       <c r="O6" s="42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P6" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>136</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1924,7 +1929,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1944,19 +1949,19 @@
         <v>10</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S7" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="56">
+    </row>
+    <row r="8" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1983,7 +1988,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -1994,28 +1999,28 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>138</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -2042,7 +2047,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -2055,28 +2060,28 @@
         <v>24</v>
       </c>
       <c r="O9" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P9" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S9" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>139</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -2103,7 +2108,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -2123,19 +2128,19 @@
         <v>10</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15">
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2162,7 +2167,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2175,28 +2180,28 @@
         <v>52</v>
       </c>
       <c r="O11" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P11" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S11" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>141</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="112">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2221,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2234,28 +2239,28 @@
         <v>33</v>
       </c>
       <c r="O12" s="42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S12" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="T12" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2280,7 +2285,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -2291,28 +2296,28 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>126</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2337,7 +2342,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2350,28 +2355,28 @@
         <v>24</v>
       </c>
       <c r="O14" s="42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P14" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S14" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>143</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2398,7 +2403,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2418,19 +2423,19 @@
         <v>10</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S15" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="U15" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T15" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15">
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2457,7 +2462,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2477,19 +2482,19 @@
         <v>10</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S16" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T16" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15">
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2507,7 +2512,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H17" s="37">
         <v>15</v>
@@ -2516,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2536,19 +2541,19 @@
         <v>10</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S17" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="U17" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T17" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15">
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2573,7 +2578,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
@@ -2588,22 +2593,22 @@
         <v>19</v>
       </c>
       <c r="Q18" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="T18" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2628,7 +2633,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
@@ -2643,22 +2648,22 @@
         <v>19</v>
       </c>
       <c r="Q19" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>147</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -2696,28 +2701,28 @@
         <v>24</v>
       </c>
       <c r="O20" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P20" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>148</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
@@ -2759,22 +2764,22 @@
         <v>19</v>
       </c>
       <c r="Q21" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S21" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>149</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2790,7 +2795,7 @@
       <c r="E22" s="31"/>
       <c r="F22" s="9"/>
       <c r="G22" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H22" s="38">
         <v>20</v>
@@ -2799,7 +2804,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2819,19 +2824,19 @@
         <v>10</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="U22" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T22" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15">
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2858,7 +2863,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2878,19 +2883,19 @@
         <v>10</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S23" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="U23" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T23" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15">
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2908,7 +2913,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H24" s="37">
         <v>22</v>
@@ -2917,7 +2922,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2937,19 +2942,19 @@
         <v>10</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S24" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="U24" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T24" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15">
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2965,7 +2970,7 @@
       <c r="E25" s="31"/>
       <c r="F25" s="9"/>
       <c r="G25" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H25" s="38">
         <v>23</v>
@@ -2974,7 +2979,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -2994,19 +2999,19 @@
         <v>10</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S25" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="U25" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T25" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15">
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -3031,7 +3036,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
@@ -3044,28 +3049,28 @@
         <v>121</v>
       </c>
       <c r="O26" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P26" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S26" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>151</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -3090,7 +3095,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>19</v>
@@ -3103,28 +3108,28 @@
         <v>121</v>
       </c>
       <c r="O27" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P27" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S27" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>152</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3149,7 +3154,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3169,19 +3174,19 @@
         <v>10</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S28" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="U28" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="T28" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15">
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3206,7 +3211,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3226,7 +3231,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="10"/>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -3251,7 +3256,7 @@
         <v>19</v>
       </c>
       <c r="J30" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
@@ -3271,19 +3276,19 @@
         <v>10</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S30" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U30" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T30" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="U30" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15">
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -3299,7 +3304,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H31" s="38">
         <v>29</v>
@@ -3308,7 +3313,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
@@ -3328,19 +3333,19 @@
         <v>10</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S31" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="U31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T31" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15">
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -3363,7 +3368,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3386,7 +3391,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3409,7 +3414,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3432,7 +3437,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3455,7 +3460,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3478,7 +3483,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3501,7 +3506,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3524,7 +3529,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3547,7 +3552,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3570,7 +3575,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3593,7 +3598,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3616,7 +3621,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3639,7 +3644,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3662,7 +3667,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3685,7 +3690,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3708,7 +3713,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3731,7 +3736,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3754,7 +3759,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3777,7 +3782,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3800,7 +3805,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3823,7 +3828,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3846,7 +3851,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3869,7 +3874,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3892,7 +3897,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3915,7 +3920,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3938,7 +3943,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3961,7 +3966,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3984,7 +3989,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4007,7 +4012,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4030,7 +4035,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4053,7 +4058,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4076,7 +4081,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4099,7 +4104,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4122,7 +4127,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4145,7 +4150,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4168,7 +4173,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4191,7 +4196,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4214,7 +4219,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15">
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4237,7 +4242,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" ht="15">
+    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -4260,7 +4265,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="1:21" ht="15">
+    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -4283,378 +4288,372 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="74" spans="1:21" hidden="1"/>
-    <row r="75" spans="1:21" hidden="1"/>
-    <row r="76" spans="1:21" hidden="1"/>
-    <row r="77" spans="1:21" hidden="1"/>
-    <row r="78" spans="1:21" hidden="1"/>
-    <row r="79" spans="1:21" hidden="1"/>
-    <row r="80" spans="1:21" hidden="1"/>
-    <row r="81" spans="1:1" hidden="1"/>
-    <row r="82" spans="1:1" hidden="1"/>
-    <row r="83" spans="1:1" hidden="1"/>
-    <row r="84" spans="1:1" hidden="1"/>
-    <row r="85" spans="1:1" hidden="1"/>
-    <row r="86" spans="1:1" hidden="1"/>
-    <row r="87" spans="1:1" hidden="1">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1">
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1"/>
-    <row r="125" spans="1:1" hidden="1"/>
-    <row r="126" spans="1:1" hidden="1"/>
-    <row r="127" spans="1:1" hidden="1"/>
-    <row r="128" spans="1:1" hidden="1"/>
-    <row r="129" hidden="1"/>
-    <row r="130" hidden="1"/>
-    <row r="131" hidden="1"/>
-    <row r="132" hidden="1"/>
-    <row r="133" hidden="1"/>
-    <row r="134" hidden="1"/>
-    <row r="135" hidden="1"/>
-    <row r="136" hidden="1"/>
-    <row r="137" hidden="1"/>
-    <row r="138" hidden="1"/>
-    <row r="139" hidden="1"/>
-    <row r="140" hidden="1"/>
-    <row r="141" hidden="1"/>
-    <row r="142" hidden="1"/>
-    <row r="143" hidden="1"/>
-    <row r="144" hidden="1"/>
-    <row r="145" hidden="1"/>
-    <row r="146" hidden="1"/>
-    <row r="147" hidden="1"/>
-    <row r="148" hidden="1"/>
-    <row r="149" hidden="1"/>
-    <row r="150" hidden="1"/>
-    <row r="151" hidden="1"/>
-    <row r="152" hidden="1"/>
-    <row r="153" hidden="1"/>
-    <row r="154" hidden="1"/>
-    <row r="155" hidden="1"/>
-    <row r="156" hidden="1"/>
-    <row r="157" hidden="1"/>
-    <row r="158" hidden="1"/>
-    <row r="159" hidden="1"/>
-    <row r="160" hidden="1"/>
-    <row r="161" hidden="1"/>
-    <row r="162" hidden="1"/>
-    <row r="163" hidden="1"/>
-    <row r="164" hidden="1"/>
-    <row r="165" hidden="1"/>
-    <row r="166" hidden="1"/>
-    <row r="167" hidden="1"/>
-    <row r="168" hidden="1"/>
-    <row r="169" hidden="1"/>
-    <row r="170" hidden="1"/>
-    <row r="171" hidden="1"/>
-    <row r="172" hidden="1"/>
-    <row r="173" hidden="1"/>
-    <row r="174" hidden="1"/>
-    <row r="175" hidden="1"/>
-    <row r="176" hidden="1"/>
-    <row r="177" hidden="1"/>
-    <row r="178" hidden="1"/>
-    <row r="179" hidden="1"/>
-    <row r="180" hidden="1"/>
-    <row r="181" hidden="1"/>
-    <row r="182" hidden="1"/>
-    <row r="183" hidden="1"/>
-    <row r="184" hidden="1"/>
-    <row r="185" hidden="1"/>
-    <row r="186" hidden="1"/>
-    <row r="187" hidden="1"/>
-    <row r="188" hidden="1"/>
-    <row r="189" hidden="1"/>
-    <row r="190" hidden="1"/>
-    <row r="191" hidden="1"/>
-    <row r="192" hidden="1"/>
-    <row r="193" hidden="1"/>
-    <row r="194" hidden="1"/>
-    <row r="195" hidden="1"/>
-    <row r="196" hidden="1"/>
-    <row r="197" hidden="1"/>
-    <row r="198" hidden="1"/>
-    <row r="199" hidden="1"/>
-    <row r="200" hidden="1"/>
-    <row r="201" hidden="1"/>
-    <row r="202" hidden="1"/>
-    <row r="203" hidden="1"/>
-    <row r="204" hidden="1"/>
-    <row r="205" hidden="1"/>
-    <row r="206" hidden="1"/>
-    <row r="207" hidden="1"/>
-    <row r="208" hidden="1"/>
-    <row r="209" hidden="1"/>
-    <row r="210" hidden="1"/>
-    <row r="211" hidden="1"/>
-    <row r="212" hidden="1"/>
-    <row r="213" hidden="1"/>
-    <row r="214" hidden="1"/>
-    <row r="215" hidden="1"/>
-    <row r="216" hidden="1"/>
-    <row r="217" hidden="1"/>
-    <row r="218" hidden="1"/>
-    <row r="219" hidden="1"/>
-    <row r="220" hidden="1"/>
-    <row r="221" hidden="1"/>
-    <row r="222" hidden="1"/>
-    <row r="223" hidden="1"/>
-    <row r="224" hidden="1"/>
-    <row r="225" hidden="1"/>
-    <row r="226" hidden="1"/>
-    <row r="227" hidden="1"/>
-    <row r="228" hidden="1"/>
-    <row r="229" hidden="1"/>
-    <row r="230" hidden="1"/>
-    <row r="231" hidden="1"/>
-    <row r="232" hidden="1"/>
-    <row r="233" hidden="1"/>
-    <row r="234" hidden="1"/>
-    <row r="235" hidden="1"/>
-    <row r="236" hidden="1"/>
-    <row r="237" hidden="1"/>
-    <row r="238" hidden="1"/>
-    <row r="239" hidden="1"/>
-    <row r="240" hidden="1"/>
-    <row r="241" hidden="1"/>
-    <row r="242" hidden="1"/>
-    <row r="243" hidden="1"/>
-    <row r="244" hidden="1"/>
-    <row r="245" hidden="1"/>
-    <row r="246" hidden="1"/>
-    <row r="247" hidden="1"/>
-    <row r="248" hidden="1"/>
-    <row r="249" hidden="1"/>
-    <row r="250" hidden="1"/>
-    <row r="251" hidden="1"/>
-    <row r="252" hidden="1"/>
-    <row r="253" hidden="1"/>
-    <row r="254" hidden="1"/>
-    <row r="255" hidden="1"/>
-    <row r="256" hidden="1"/>
-    <row r="257" hidden="1"/>
-    <row r="258" hidden="1"/>
-    <row r="259" hidden="1"/>
-    <row r="260" hidden="1"/>
-    <row r="261" hidden="1"/>
-    <row r="262" hidden="1"/>
-    <row r="263" hidden="1"/>
-    <row r="264" hidden="1"/>
-    <row r="265" hidden="1"/>
-    <row r="266" hidden="1"/>
-    <row r="267" hidden="1"/>
-    <row r="268" hidden="1"/>
-    <row r="269" hidden="1"/>
-    <row r="270" hidden="1"/>
-    <row r="271" hidden="1"/>
-    <row r="272" hidden="1"/>
-    <row r="273" hidden="1"/>
-    <row r="274" hidden="1"/>
-    <row r="275" hidden="1"/>
-    <row r="276" hidden="1"/>
-    <row r="277" hidden="1"/>
-    <row r="278" hidden="1"/>
-    <row r="279" hidden="1"/>
-    <row r="280" hidden="1"/>
-    <row r="281" hidden="1"/>
-    <row r="282" hidden="1"/>
-    <row r="283" hidden="1"/>
-    <row r="284" hidden="1"/>
-    <row r="285" hidden="1"/>
-    <row r="286" hidden="1"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4669,6 +4668,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4716,34 +4721,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="2"/>
-    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.33203125" style="2"/>
+    <col min="13" max="13" width="11.28515625" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4760,7 +4765,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4784,7 +4789,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4803,7 +4808,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4822,7 +4827,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4838,7 +4843,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4855,7 +4860,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4872,7 +4877,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4887,7 +4892,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4902,7 +4907,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4917,7 +4922,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4932,7 +4937,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4947,7 +4952,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4962,7 +4967,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4977,7 +4982,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4992,7 +4997,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5007,7 +5012,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -5021,7 +5026,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -5035,7 +5040,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -5049,7 +5054,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -5063,7 +5068,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5078,7 +5083,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5093,7 +5098,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5108,7 +5113,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5123,7 +5128,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5138,7 +5143,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5153,7 +5158,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5168,7 +5173,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5183,7 +5188,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5198,7 +5203,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5213,7 +5218,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5228,7 +5233,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5243,7 +5248,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5258,7 +5263,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5273,7 +5278,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5288,7 +5293,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5303,7 +5308,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5318,7 +5323,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5333,7 +5338,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5348,7 +5353,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5363,7 +5368,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5378,7 +5383,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5393,7 +5398,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5408,7 +5413,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5423,7 +5428,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5438,7 +5443,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5453,7 +5458,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5468,7 +5473,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5483,7 +5488,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5495,7 +5500,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5507,7 +5512,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5520,7 +5525,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5533,7 +5538,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5546,7 +5551,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5559,7 +5564,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5572,7 +5577,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5585,7 +5590,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5598,7 +5603,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5611,7 +5616,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5624,7 +5629,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5637,7 +5642,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5650,7 +5655,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5663,7 +5668,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5676,7 +5681,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5689,7 +5694,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5702,7 +5707,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5715,7 +5720,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5728,7 +5733,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5741,7 +5746,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5754,7 +5759,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5767,7 +5772,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5781,7 +5786,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5795,7 +5800,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5809,7 +5814,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5823,7 +5828,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5837,7 +5842,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5851,7 +5856,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5865,7 +5870,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5879,7 +5884,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5893,7 +5898,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5907,7 +5912,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5921,7 +5926,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5935,7 +5940,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5949,7 +5954,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5963,7 +5968,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5977,7 +5982,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5991,7 +5996,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6005,7 +6010,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6019,7 +6024,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6033,7 +6038,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6047,7 +6052,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6061,7 +6066,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6075,7 +6080,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6089,7 +6094,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6103,7 +6108,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6117,7 +6122,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6131,7 +6136,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6145,7 +6150,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6159,7 +6164,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6173,7 +6178,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6187,7 +6192,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6201,7 +6206,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6215,7 +6220,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6229,7 +6234,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6243,7 +6248,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6257,7 +6262,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6271,7 +6276,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6285,7 +6290,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6299,7 +6304,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6313,7 +6318,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6327,7 +6332,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6341,7 +6346,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6355,7 +6360,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6369,7 +6374,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6383,7 +6388,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6397,7 +6402,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6411,7 +6416,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6425,7 +6430,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6439,7 +6444,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6453,7 +6458,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6467,7 +6472,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6481,7 +6486,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6495,7 +6500,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6509,7 +6514,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6523,7 +6528,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6537,7 +6542,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6551,7 +6556,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6565,7 +6570,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6579,7 +6584,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6593,7 +6598,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6607,7 +6612,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6621,7 +6626,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6635,7 +6640,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
